--- a/100runs/run077/NotionalETEOutput077.xlsx
+++ b/100runs/run077/NotionalETEOutput077.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="16">
   <si>
     <t>uniqueid</t>
   </si>
@@ -49,22 +49,16 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_BRAVER_State_Update</t>
-  </si>
-  <si>
     <t>Missile_HIGHWIND_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER_368.MISSILE_BRAVER_368</t>
+    <t>MISSILE_HIGHWIND_217.MISSILE_HIGHWIND_217</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND_333.MISSILE_HIGHWIND_333</t>
+    <t>MISSILE_HIGHWIND_423.MISSILE_HIGHWIND_423</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER_427.MISSILE_BRAVER_427</t>
-  </si>
-  <si>
-    <t>MISSILE_BRAVER</t>
+    <t>MISSILE_HIGHWIND_61.MISSILE_HIGHWIND_61</t>
   </si>
   <si>
     <t>MISSILE_HIGHWIND</t>
@@ -474,31 +468,31 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>174.0503400396754</v>
+        <v>1116578.271753278</v>
       </c>
       <c r="G2">
-        <v>-113.5835855843978</v>
+        <v>4841116.243258974</v>
       </c>
       <c r="H2">
-        <v>1154.595513558281</v>
+        <v>3985224.239491731</v>
       </c>
       <c r="I2">
-        <v>-1806.609187138547</v>
+        <v>1114862.08987503</v>
       </c>
       <c r="J2">
-        <v>2782.913659350205</v>
+        <v>4843222.936622793</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984367.501505019</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -509,31 +503,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>174.0503400396754</v>
+        <v>1116578.271753278</v>
       </c>
       <c r="G3">
-        <v>-113.5835855843978</v>
+        <v>4841116.243258974</v>
       </c>
       <c r="H3">
-        <v>1154.595513558281</v>
+        <v>3985224.239491731</v>
       </c>
       <c r="I3">
-        <v>-1770.941911258733</v>
+        <v>1114891.70389095</v>
       </c>
       <c r="J3">
-        <v>2715.217074625664</v>
+        <v>4843174.285037952</v>
       </c>
       <c r="K3">
-        <v>304.2690376393207</v>
+        <v>3984671.297282004</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -544,31 +538,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>174.0503400396754</v>
+        <v>1116578.271753278</v>
       </c>
       <c r="G4">
-        <v>-113.5835855843978</v>
+        <v>4841116.243258974</v>
       </c>
       <c r="H4">
-        <v>1154.595513558281</v>
+        <v>3985224.239491731</v>
       </c>
       <c r="I4">
-        <v>-1734.396361523671</v>
+        <v>1114922.047124767</v>
       </c>
       <c r="J4">
-        <v>2647.520489901124</v>
+        <v>4843125.633453112</v>
       </c>
       <c r="K4">
-        <v>593.3658263427466</v>
+        <v>3984959.944409</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -579,31 +573,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>174.0503400396754</v>
+        <v>1116578.271753278</v>
       </c>
       <c r="G5">
-        <v>-113.5835855843978</v>
+        <v>4841116.243258974</v>
       </c>
       <c r="H5">
-        <v>1154.595513558281</v>
+        <v>3985224.239491731</v>
       </c>
       <c r="I5">
-        <v>-1696.950911247672</v>
+        <v>1114953.137532802</v>
       </c>
       <c r="J5">
-        <v>2579.823905176583</v>
+        <v>4843076.981868272</v>
       </c>
       <c r="K5">
-        <v>867.2903661102796</v>
+        <v>3985233.442886004</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -614,31 +608,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>174.0503400396754</v>
+        <v>1116578.271753278</v>
       </c>
       <c r="G6">
-        <v>-113.5835855843978</v>
+        <v>4841116.243258974</v>
       </c>
       <c r="H6">
-        <v>1154.595513558281</v>
+        <v>3985224.239491731</v>
       </c>
       <c r="I6">
-        <v>-1658.583401207809</v>
+        <v>1114984.993513532</v>
       </c>
       <c r="J6">
-        <v>2512.127320452042</v>
+        <v>4843028.330283432</v>
       </c>
       <c r="K6">
-        <v>1126.042656941918</v>
+        <v>3985491.792713019</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -649,31 +643,31 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>174.0503400396754</v>
+        <v>1116578.271753278</v>
       </c>
       <c r="G7">
-        <v>-113.5835855843978</v>
+        <v>4841116.243258974</v>
       </c>
       <c r="H7">
-        <v>1154.595513558281</v>
+        <v>3985224.239491731</v>
       </c>
       <c r="I7">
-        <v>-1619.271126530676</v>
+        <v>1115017.633918481</v>
       </c>
       <c r="J7">
-        <v>2444.430735727501</v>
+        <v>4842979.678698592</v>
       </c>
       <c r="K7">
-        <v>1369.622698837665</v>
+        <v>3985734.993890043</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -684,31 +678,31 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>174.0503400396754</v>
+        <v>1116578.271753278</v>
       </c>
       <c r="G8">
-        <v>-113.5835855843978</v>
+        <v>4841116.243258974</v>
       </c>
       <c r="H8">
-        <v>1154.595513558281</v>
+        <v>3985224.239491731</v>
       </c>
       <c r="I8">
-        <v>-1578.990823256249</v>
+        <v>1115051.078063373</v>
       </c>
       <c r="J8">
-        <v>2376.73415100296</v>
+        <v>4842931.027113752</v>
       </c>
       <c r="K8">
-        <v>1598.030491797517</v>
+        <v>3985963.046417076</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,31 +713,31 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>174.0503400396754</v>
+        <v>1116578.271753278</v>
       </c>
       <c r="G9">
-        <v>-113.5835855843978</v>
+        <v>4841116.243258974</v>
       </c>
       <c r="H9">
-        <v>1154.595513558281</v>
+        <v>3985224.239491731</v>
       </c>
       <c r="I9">
-        <v>-1537.718654570888</v>
+        <v>1115085.345739565</v>
       </c>
       <c r="J9">
-        <v>2309.037566278419</v>
+        <v>4842882.375528911</v>
       </c>
       <c r="K9">
-        <v>1811.266035821475</v>
+        <v>3986175.95029412</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -754,31 +748,31 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>174.0503400396754</v>
+        <v>1116578.271753278</v>
       </c>
       <c r="G10">
-        <v>-94.82773843681947</v>
+        <v>4841132.756049805</v>
       </c>
       <c r="H10">
-        <v>1154.595513558281</v>
+        <v>3985224.239491731</v>
       </c>
       <c r="I10">
-        <v>-1495.43019670135</v>
+        <v>1115120.457225757</v>
       </c>
       <c r="J10">
-        <v>2241.340981553878</v>
+        <v>4842833.723944072</v>
       </c>
       <c r="K10">
-        <v>2009.329330909539</v>
+        <v>3986373.705521172</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -789,31 +783,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>135.0833679670848</v>
+        <v>1116529.591199627</v>
       </c>
       <c r="G11">
-        <v>-76.07189128924119</v>
+        <v>4841149.268840636</v>
       </c>
       <c r="H11">
-        <v>1422.453903366147</v>
+        <v>3985423.49369407</v>
       </c>
       <c r="I11">
-        <v>-1452.100424461442</v>
+        <v>1115156.433299995</v>
       </c>
       <c r="J11">
-        <v>2173.644396829338</v>
+        <v>4842785.072359231</v>
       </c>
       <c r="K11">
-        <v>2192.22037706171</v>
+        <v>3986556.312098235</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -824,31 +818,31 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>112.1922266687734</v>
+        <v>1116500.993816437</v>
       </c>
       <c r="G12">
-        <v>-57.31604414166292</v>
+        <v>4841165.781631468</v>
       </c>
       <c r="H12">
-        <v>1582.00405913383</v>
+        <v>3985542.179687229</v>
       </c>
       <c r="I12">
-        <v>-1407.703696442786</v>
+        <v>1115193.295251964</v>
       </c>
       <c r="J12">
-        <v>2105.947812104797</v>
+        <v>4842736.420774391</v>
       </c>
       <c r="K12">
-        <v>2359.939174277987</v>
+        <v>3986723.770025308</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -859,31 +853,31 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>97.74165890218511</v>
+        <v>1116482.941050158</v>
       </c>
       <c r="G13">
-        <v>-38.56019699408464</v>
+        <v>4841182.2944223</v>
       </c>
       <c r="H13">
-        <v>1696.023771878213</v>
+        <v>3985626.996544861</v>
       </c>
       <c r="I13">
-        <v>-1362.21373984091</v>
+        <v>1115231.064895587</v>
       </c>
       <c r="J13">
-        <v>2038.251227380256</v>
+        <v>4842687.769189551</v>
       </c>
       <c r="K13">
-        <v>2512.485722558371</v>
+        <v>3986876.079302389</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -894,31 +888,31 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>87.66389160006466</v>
+        <v>1116470.351124235</v>
       </c>
       <c r="G14">
-        <v>-19.80434984650635</v>
+        <v>4841198.807213129</v>
       </c>
       <c r="H14">
-        <v>1784.810861106158</v>
+        <v>3985693.043386458</v>
       </c>
       <c r="I14">
-        <v>-1315.603634907707</v>
+        <v>1115269.764581937</v>
       </c>
       <c r="J14">
-        <v>1970.554642655715</v>
+        <v>4842639.117604711</v>
       </c>
       <c r="K14">
-        <v>2649.860021902862</v>
+        <v>3987013.239929481</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -929,31 +923,31 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>80.14557539798601</v>
+        <v>1116460.958662471</v>
       </c>
       <c r="G15">
-        <v>-1.048502698928088</v>
+        <v>4841215.320003961</v>
       </c>
       <c r="H15">
-        <v>1857.534374138243</v>
+        <v>3985747.140872786</v>
       </c>
       <c r="I15">
-        <v>-1267.845799021033</v>
+        <v>1115309.417212461</v>
       </c>
       <c r="J15">
-        <v>1902.858057931174</v>
+        <v>4842590.466019872</v>
       </c>
       <c r="K15">
-        <v>2772.062072311458</v>
+        <v>3987135.251906583</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -964,31 +958,31 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>74.26730202969189</v>
+        <v>1116453.615068991</v>
       </c>
       <c r="G16">
-        <v>17.7073444486502</v>
+        <v>4841231.832794792</v>
       </c>
       <c r="H16">
-        <v>1919.125881117262</v>
+        <v>3985792.957494781</v>
       </c>
       <c r="I16">
-        <v>-1218.911970362054</v>
+        <v>1115350.046252531</v>
       </c>
       <c r="J16">
-        <v>1835.161473206633</v>
+        <v>4842541.81443503</v>
       </c>
       <c r="K16">
-        <v>2879.09187378416</v>
+        <v>3987242.115233694</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -999,31 +993,31 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>69.51135086362351</v>
+        <v>1116447.67356716</v>
       </c>
       <c r="G17">
-        <v>36.46319159622848</v>
+        <v>4841248.345585624</v>
       </c>
       <c r="H17">
-        <v>1972.545295936403</v>
+        <v>3985832.69506991</v>
       </c>
       <c r="I17">
-        <v>-1168.773191190644</v>
+        <v>1115391.675745336</v>
       </c>
       <c r="J17">
-        <v>1767.464888482093</v>
+        <v>4842493.162850191</v>
       </c>
       <c r="K17">
-        <v>2970.949426320969</v>
+        <v>3987333.829910814</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1034,31 +1028,31 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>65.56221675545061</v>
+        <v>1116442.740003565</v>
       </c>
       <c r="G18">
-        <v>55.21903874380675</v>
+        <v>4841264.858376455</v>
       </c>
       <c r="H18">
-        <v>2019.709353173039</v>
+        <v>3985867.77941657</v>
       </c>
       <c r="I18">
-        <v>-1117.399790708969</v>
+        <v>1115434.330326102</v>
       </c>
       <c r="J18">
-        <v>1699.768303757552</v>
+        <v>4842444.511265351</v>
       </c>
       <c r="K18">
-        <v>3047.634729921885</v>
+        <v>3987410.395937944</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1069,31 +1063,31 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>62.21562273419644</v>
+        <v>1116438.559179622</v>
       </c>
       <c r="G19">
-        <v>73.97488589138504</v>
+        <v>4841281.371167286</v>
       </c>
       <c r="H19">
-        <v>2061.930675170184</v>
+        <v>3985899.186966815</v>
       </c>
       <c r="I19">
-        <v>-1064.761367503095</v>
+        <v>1115478.035236677</v>
       </c>
       <c r="J19">
-        <v>1632.071719033011</v>
+        <v>4842395.859680511</v>
       </c>
       <c r="K19">
-        <v>3109.147784586907</v>
+        <v>3987471.813315084</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1104,31 +1098,31 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>59.33285847982453</v>
+        <v>1116434.957807679</v>
       </c>
       <c r="G20">
-        <v>92.73073303896332</v>
+        <v>4841297.883958117</v>
       </c>
       <c r="H20">
-        <v>2100.147677274294</v>
+        <v>3985927.615788011</v>
       </c>
       <c r="I20">
-        <v>-1010.826771552237</v>
+        <v>1115522.816340469</v>
       </c>
       <c r="J20">
-        <v>1564.37513430847</v>
+        <v>4842347.20809567</v>
       </c>
       <c r="K20">
-        <v>3155.488590316035</v>
+        <v>3987518.082042234</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1139,31 +1133,31 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>56.81605632832899</v>
+        <v>1116431.813623883</v>
       </c>
       <c r="G21">
-        <v>111.4865801865416</v>
+        <v>4841314.396748949</v>
       </c>
       <c r="H21">
-        <v>2135.054544996966</v>
+        <v>3985953.582270111</v>
       </c>
       <c r="I21">
-        <v>-955.5640857950085</v>
+        <v>1115568.700137743</v>
       </c>
       <c r="J21">
-        <v>1496.678549583929</v>
+        <v>4842298.55651083</v>
       </c>
       <c r="K21">
-        <v>3186.65714710927</v>
+        <v>3987549.202119393</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1174,31 +1168,31 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>54.59395790312854</v>
+        <v>1116429.037606763</v>
       </c>
       <c r="G22">
-        <v>130.2424273341199</v>
+        <v>4841330.90953978</v>
       </c>
       <c r="H22">
-        <v>2167.179259933375</v>
+        <v>3985977.479167478</v>
       </c>
       <c r="I22">
-        <v>-898.9406072417462</v>
+        <v>1115615.713781312</v>
       </c>
       <c r="J22">
-        <v>1428.981964859388</v>
+        <v>4842249.90492599</v>
       </c>
       <c r="K22">
-        <v>3202.653454966611</v>
+        <v>3987565.173546562</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1209,31 +1203,31 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>52.6132973076301</v>
+        <v>1116426.563212442</v>
       </c>
       <c r="G23">
-        <v>148.9982744816982</v>
+        <v>4841347.422330611</v>
       </c>
       <c r="H23">
-        <v>2196.932757907821</v>
+        <v>3985999.612166597</v>
       </c>
       <c r="I23">
-        <v>-840.9228276217549</v>
+        <v>1115663.885092603</v>
       </c>
       <c r="J23">
-        <v>1361.285380134847</v>
+        <v>4842201.25334115</v>
       </c>
       <c r="K23">
-        <v>3203.477513888058</v>
+        <v>3987565.996323741</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1244,31 +1238,31 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>50.83336095882893</v>
+        <v>1116424.339578367</v>
       </c>
       <c r="G24">
-        <v>167.7541216292765</v>
+        <v>4841363.935121443</v>
       </c>
       <c r="H24">
-        <v>2224.641157452098</v>
+        <v>3986020.223860161</v>
       </c>
       <c r="I24">
-        <v>-781.476413554</v>
+        <v>1115713.242578118</v>
       </c>
       <c r="J24">
-        <v>1293.588795410307</v>
+        <v>4842152.601756309</v>
       </c>
       <c r="K24">
-        <v>3189.129323873612</v>
+        <v>3987551.670450929</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1279,31 +1273,31 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>49.22242879218225</v>
+        <v>1116422.327077379</v>
       </c>
       <c r="G25">
-        <v>186.5099687768547</v>
+        <v>4841380.447912274</v>
       </c>
       <c r="H25">
-        <v>2250.567606523076</v>
+        <v>3986039.509998381</v>
       </c>
       <c r="I25">
-        <v>-720.5661862295244</v>
+        <v>1115763.815446305</v>
       </c>
       <c r="J25">
-        <v>1225.892210685766</v>
+        <v>4842103.95017147</v>
       </c>
       <c r="K25">
-        <v>3159.608884923271</v>
+        <v>3987522.195928127</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1314,31 +1308,31 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>47.75537425879208</v>
+        <v>1116420.494319453</v>
       </c>
       <c r="G26">
-        <v>205.265815924433</v>
+        <v>4841396.960703106</v>
       </c>
       <c r="H26">
-        <v>2274.927518828234</v>
+        <v>3986057.630822966</v>
       </c>
       <c r="I26">
-        <v>-658.1561005935654</v>
+        <v>1115815.633624845</v>
       </c>
       <c r="J26">
-        <v>1158.195625961225</v>
+        <v>4842055.29858663</v>
       </c>
       <c r="K26">
-        <v>3114.916197037038</v>
+        <v>3987477.572755334</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1349,31 +1343,31 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>46.41200255428272</v>
+        <v>1116418.816075678</v>
       </c>
       <c r="G27">
-        <v>224.0216630720113</v>
+        <v>4841413.473493936</v>
       </c>
       <c r="H27">
-        <v>2297.899463615306</v>
+        <v>3986074.719167811</v>
       </c>
       <c r="I27">
-        <v>-594.209224015047</v>
+        <v>1115868.72777836</v>
       </c>
       <c r="J27">
-        <v>1090.499041236684</v>
+        <v>4842006.647001789</v>
       </c>
       <c r="K27">
-        <v>3055.051260214911</v>
+        <v>3987417.800932551</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1384,31 +1378,31 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>45.17587316132493</v>
+        <v>1116417.271807288</v>
       </c>
       <c r="G28">
-        <v>242.7775102195896</v>
+        <v>4841429.986284767</v>
       </c>
       <c r="H28">
-        <v>2319.633116899571</v>
+        <v>3986090.886373745</v>
       </c>
       <c r="I28">
-        <v>-528.6877144308306</v>
+        <v>1115923.129326559</v>
       </c>
       <c r="J28">
-        <v>1022.802456512143</v>
+        <v>4841957.99541695</v>
       </c>
       <c r="K28">
-        <v>2980.01407445689</v>
+        <v>3987342.880459778</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1419,31 +1413,31 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>44.0334484148049</v>
+        <v>1116415.844601985</v>
       </c>
       <c r="G29">
-        <v>261.5333573671679</v>
+        <v>4841446.499075599</v>
       </c>
       <c r="H29">
-        <v>2340.255177149713</v>
+        <v>3986106.226689083</v>
       </c>
       <c r="I29">
-        <v>-461.5527979517856</v>
+        <v>1115978.870462835</v>
       </c>
       <c r="J29">
-        <v>955.1058717876024</v>
+        <v>4841909.343832109</v>
       </c>
       <c r="K29">
-        <v>2889.804639762975</v>
+        <v>3987252.811337016</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1454,31 +1448,31 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>42.97346659234974</v>
+        <v>1116414.520390756</v>
       </c>
       <c r="G30">
-        <v>280.2892045147461</v>
+        <v>4841463.01186643</v>
       </c>
       <c r="H30">
-        <v>2359.873840418037</v>
+        <v>3986120.820598586</v>
       </c>
       <c r="I30">
-        <v>-392.764745917435</v>
+        <v>1116035.98417331</v>
       </c>
       <c r="J30">
-        <v>887.4092870630614</v>
+        <v>4841860.69224727</v>
       </c>
       <c r="K30">
-        <v>2784.422956133166</v>
+        <v>3987147.593564262</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1489,31 +1483,31 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>41.98647280235974</v>
+        <v>1116413.287361819</v>
       </c>
       <c r="G31">
-        <v>299.0450516623244</v>
+        <v>4841479.524657262</v>
       </c>
       <c r="H31">
-        <v>2378.582236392645</v>
+        <v>3986134.737379463</v>
       </c>
       <c r="I31">
-        <v>-322.2828513855862</v>
+        <v>1116094.504256362</v>
       </c>
       <c r="J31">
-        <v>819.7127023385207</v>
+        <v>4841812.040662428</v>
       </c>
       <c r="K31">
-        <v>2663.869023567465</v>
+        <v>3987027.227141517</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1524,31 +1518,31 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>41.06446281002187</v>
+        <v>1116412.135515666</v>
       </c>
       <c r="G32">
-        <v>317.8008988099027</v>
+        <v>4841496.037448093</v>
       </c>
       <c r="H32">
-        <v>2396.461102084396</v>
+        <v>3986148.037090272</v>
       </c>
       <c r="I32">
-        <v>-250.0654050430446</v>
+        <v>1116154.465342622</v>
       </c>
       <c r="J32">
-        <v>752.0161176139798</v>
+        <v>4841763.389077589</v>
       </c>
       <c r="K32">
-        <v>2528.142842065869</v>
+        <v>3986891.712068783</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1559,31 +1553,31 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>40.20060903226438</v>
+        <v>1116411.056322751</v>
       </c>
       <c r="G33">
-        <v>336.5567459574809</v>
+        <v>4841512.550238923</v>
       </c>
       <c r="H33">
-        <v>2413.580887530824</v>
+        <v>3986160.772137308</v>
       </c>
       <c r="I33">
-        <v>-176.06967052315</v>
+        <v>1116215.902915467</v>
       </c>
       <c r="J33">
-        <v>684.3195328894391</v>
+        <v>4841714.737492749</v>
       </c>
       <c r="K33">
-        <v>2377.24441162838</v>
+        <v>3986741.048346058</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1594,31 +1588,31 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>39.38904721125036</v>
+        <v>1116410.042456991</v>
       </c>
       <c r="G34">
-        <v>355.3125931050592</v>
+        <v>4841529.063029755</v>
       </c>
       <c r="H34">
-        <v>2430.003432426088</v>
+        <v>3986172.988521816</v>
       </c>
       <c r="I34">
-        <v>-100.2518591155303</v>
+        <v>1116278.853332023</v>
       </c>
       <c r="J34">
-        <v>616.6229481648982</v>
+        <v>4841666.085907909</v>
       </c>
       <c r="K34">
-        <v>2211.173732254998</v>
+        <v>3986575.235973343</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1629,31 +1623,31 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>38.624708507562</v>
+        <v>1116409.087585999</v>
       </c>
       <c r="G35">
-        <v>374.0684402526375</v>
+        <v>4841545.575820586</v>
       </c>
       <c r="H35">
-        <v>2445.783314499044</v>
+        <v>3986184.726843015</v>
       </c>
       <c r="I35">
-        <v>-22.56710385310581</v>
+        <v>1116343.353844673</v>
       </c>
       <c r="J35">
-        <v>548.9263634403571</v>
+        <v>4841617.434323068</v>
       </c>
       <c r="K35">
-        <v>2029.930803945721</v>
+        <v>3986394.274950637</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1664,31 +1658,31 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>37.90318601497214</v>
+        <v>1116408.186204327</v>
       </c>
       <c r="G36">
-        <v>392.8242874002158</v>
+        <v>4841562.088611417</v>
       </c>
       <c r="H36">
-        <v>2460.968943860785</v>
+        <v>3986196.023112165</v>
       </c>
       <c r="I36">
-        <v>57.03056703899172</v>
+        <v>1116409.442623107</v>
       </c>
       <c r="J36">
-        <v>481.2297787158165</v>
+        <v>4841568.782738228</v>
       </c>
       <c r="K36">
-        <v>1833.515626700551</v>
+        <v>3986198.165277942</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1699,31 +1693,31 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>37.22062766001395</v>
+        <v>1116407.333499669</v>
       </c>
       <c r="G37">
-        <v>411.580134547794</v>
+        <v>4841578.601402249</v>
       </c>
       <c r="H37">
-        <v>2475.603458672676</v>
+        <v>3986206.909418835</v>
       </c>
       <c r="I37">
-        <v>138.5882573482926</v>
+        <v>1116477.15877691</v>
       </c>
       <c r="J37">
-        <v>413.5331939912755</v>
+        <v>4841520.131153388</v>
       </c>
       <c r="K37">
-        <v>1621.928200519487</v>
+        <v>3985986.906955256</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1734,31 +1728,31 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>36.57364953883843</v>
+        <v>1116406.525244588</v>
       </c>
       <c r="G38">
-        <v>430.3359816953724</v>
+        <v>4841595.11419308</v>
       </c>
       <c r="H38">
-        <v>2489.72546390704</v>
+        <v>3986217.414480448</v>
       </c>
       <c r="I38">
-        <v>222.1542307497614</v>
+        <v>1116546.542378702</v>
       </c>
       <c r="J38">
-        <v>345.8366092667349</v>
+        <v>4841471.479568549</v>
       </c>
       <c r="K38">
-        <v>1395.16852540253</v>
+        <v>3985760.499982579</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1769,31 +1763,31 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>35.95926523840594</v>
+        <v>1116405.757708229</v>
       </c>
       <c r="G39">
-        <v>449.0918288429507</v>
+        <v>4841611.626983912</v>
       </c>
       <c r="H39">
-        <v>2503.369645072237</v>
+        <v>3986227.564098821</v>
       </c>
       <c r="I39">
-        <v>307.7779393669547</v>
+        <v>1116617.634487857</v>
       </c>
       <c r="J39">
-        <v>278.1400245421939</v>
+        <v>4841422.827983708</v>
       </c>
       <c r="K39">
-        <v>1153.236601349678</v>
+        <v>3985518.944359912</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1804,31 +1798,31 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>35.374827771898</v>
+        <v>1116405.027583769</v>
       </c>
       <c r="G40">
-        <v>467.8476759905289</v>
+        <v>4841628.139774743</v>
       </c>
       <c r="H40">
-        <v>2516.567281467685</v>
+        <v>3986237.381541966</v>
       </c>
       <c r="I40">
-        <v>395.5100530364796</v>
+        <v>1116690.477174796</v>
       </c>
       <c r="J40">
-        <v>210.4434398176529</v>
+        <v>4841374.176398868</v>
       </c>
       <c r="K40">
-        <v>896.1324283609338</v>
+        <v>3985262.240087255</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1839,31 +1833,31 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>34.81798155210642</v>
+        <v>1116404.331928427</v>
       </c>
       <c r="G41">
-        <v>486.6035231381072</v>
+        <v>4841644.652565573</v>
       </c>
       <c r="H41">
-        <v>2529.346678081664</v>
+        <v>3986246.887865364</v>
       </c>
       <c r="I41">
-        <v>485.4024892930507</v>
+        <v>1116765.113545887</v>
       </c>
       <c r="J41">
-        <v>142.7468550931123</v>
+        <v>4841325.524814028</v>
       </c>
       <c r="K41">
-        <v>623.8560064362958</v>
+        <v>3984990.387164608</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1874,31 +1868,31 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>34.28662241500352</v>
+        <v>1116403.668113519</v>
       </c>
       <c r="G42">
-        <v>505.3593702856854</v>
+        <v>4841661.165356405</v>
       </c>
       <c r="H42">
-        <v>2541.733531132888</v>
+        <v>3986256.102183893</v>
       </c>
       <c r="I42">
-        <v>577.5084440929168</v>
+        <v>1116841.587768953</v>
       </c>
       <c r="J42">
-        <v>75.05027036857133</v>
+        <v>4841276.873229188</v>
       </c>
       <c r="K42">
-        <v>336.4073355757635</v>
+        <v>3984703.38559197</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1909,31 +1903,31 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>33.77886414634965</v>
+        <v>1116403.03378264</v>
       </c>
       <c r="G43">
-        <v>524.1152174332639</v>
+        <v>4841677.678147237</v>
       </c>
       <c r="H43">
-        <v>2553.751239125887</v>
+        <v>3986265.041903205</v>
       </c>
       <c r="I43">
-        <v>671.8824232938041</v>
+        <v>1116919.945099406</v>
       </c>
       <c r="J43">
-        <v>7.353685644030363</v>
+        <v>4841228.221644348</v>
       </c>
       <c r="K43">
-        <v>33.78641577933764</v>
+        <v>3984401.235369342</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1944,31 +1938,31 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>33.29301029734803</v>
+        <v>1116402.426816455</v>
       </c>
       <c r="G44">
-        <v>542.871064580842</v>
+        <v>4841694.190938068</v>
       </c>
       <c r="H44">
-        <v>2565.421168884511</v>
+        <v>3986273.722917628</v>
       </c>
       <c r="I44">
-        <v>768.5802749100437</v>
+        <v>1117000.231907034</v>
       </c>
       <c r="J44">
-        <v>-60.34289908051029</v>
+        <v>4841179.570059507</v>
       </c>
       <c r="K44">
-        <v>-284.0067529529809</v>
+        <v>3984083.936496723</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1979,31 +1973,31 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>32.82753032949227</v>
+        <v>1116401.845302898</v>
       </c>
       <c r="G45">
-        <v>561.6269117284203</v>
+        <v>4841710.703728899</v>
       </c>
       <c r="H45">
-        <v>2576.762884163797</v>
+        <v>3986282.159780228</v>
       </c>
       <c r="I45">
-        <v>867.6592221619414</v>
+        <v>1117082.495703437</v>
       </c>
       <c r="J45">
-        <v>-128.0394838050512</v>
+        <v>4841130.918474668</v>
       </c>
       <c r="K45">
-        <v>-616.9721706211941</v>
+        <v>3983751.488974114</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2014,31 +2008,31 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>32.38103932424114</v>
+        <v>1116401.287511821</v>
       </c>
       <c r="G46">
-        <v>580.3827588759987</v>
+        <v>4841727.216519729</v>
       </c>
       <c r="H46">
-        <v>2587.794342984419</v>
+        <v>3986290.365849597</v>
       </c>
       <c r="I46">
-        <v>969.1778973389577</v>
+        <v>1117166.785170145</v>
       </c>
       <c r="J46">
-        <v>-195.7360685295922</v>
+        <v>4841082.266889826</v>
       </c>
       <c r="K46">
-        <v>-965.1098372253016</v>
+        <v>3983403.892801515</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2049,31 +2043,31 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>31.95228064472838</v>
+        <v>1116400.751873335</v>
       </c>
       <c r="G47">
-        <v>599.1386060235769</v>
+        <v>4841743.729310561</v>
       </c>
       <c r="H47">
-        <v>2598.532068688306</v>
+        <v>3986298.353417101</v>
       </c>
       <c r="I47">
-        <v>1073.196376496739</v>
+        <v>1117253.150187426</v>
       </c>
       <c r="J47">
-        <v>-263.4326532541332</v>
+        <v>4841033.615304987</v>
       </c>
       <c r="K47">
-        <v>-1328.419752765302</v>
+        <v>3983041.147978926</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2084,31 +2078,31 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>31.54011105510276</v>
+        <v>1116400.236959223</v>
       </c>
       <c r="G48">
-        <v>617.8944531711551</v>
+        <v>4841760.242101393</v>
       </c>
       <c r="H48">
-        <v>2608.991298806136</v>
+        <v>3986306.133817617</v>
       </c>
       <c r="I48">
-        <v>1179.776215008534</v>
+        <v>1117341.641863804</v>
       </c>
       <c r="J48">
-        <v>-331.1292379786735</v>
+        <v>4840984.963720147</v>
       </c>
       <c r="K48">
-        <v>-1706.901917241194</v>
+        <v>3982663.254506346</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2119,31 +2113,31 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>31.14348789621987</v>
+        <v>1116399.741466914</v>
       </c>
       <c r="G49">
-        <v>636.6503003187335</v>
+        <v>4841776.754892224</v>
       </c>
       <c r="H49">
-        <v>2619.186115103265</v>
+        <v>3986313.717526272</v>
       </c>
       <c r="I49">
-        <v>1288.98048399203</v>
+        <v>1117432.312566302</v>
       </c>
       <c r="J49">
-        <v>-398.8258227032145</v>
+        <v>4840936.312135307</v>
       </c>
       <c r="K49">
-        <v>-2100.556330652981</v>
+        <v>3982270.212383776</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2154,31 +2148,31 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>30.76145799014062</v>
+        <v>1116399.264205625</v>
       </c>
       <c r="G50">
-        <v>655.4061474663117</v>
+        <v>4841793.267683055</v>
       </c>
       <c r="H50">
-        <v>2629.129557589362</v>
+        <v>3986321.114243256</v>
       </c>
       <c r="I50">
-        <v>1400.873807633159</v>
+        <v>1117525.215951432</v>
       </c>
       <c r="J50">
-        <v>-466.5224074277555</v>
+        <v>4840887.660550466</v>
       </c>
       <c r="K50">
-        <v>-2509.382993000663</v>
+        <v>3981862.021611215</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2189,31 +2183,31 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>30.39314800464108</v>
+        <v>1116398.804084321</v>
       </c>
       <c r="G51">
-        <v>674.16199461389</v>
+        <v>4841809.780473887</v>
       </c>
       <c r="H51">
-        <v>2638.833724807731</v>
+        <v>3986328.332968418</v>
       </c>
       <c r="I51">
-        <v>1515.522401428979</v>
+        <v>1117620.406996953</v>
       </c>
       <c r="J51">
-        <v>-534.2189921522964</v>
+        <v>4840839.008965626</v>
       </c>
       <c r="K51">
-        <v>-2933.381904284239</v>
+        <v>3981438.682188665</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2224,31 +2218,31 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>30.03775605602801</v>
+        <v>1116398.360101227</v>
       </c>
       <c r="G52">
-        <v>692.9178417614684</v>
+        <v>4841826.293264718</v>
       </c>
       <c r="H52">
-        <v>2648.309862339219</v>
+        <v>3986335.38206711</v>
       </c>
       <c r="I52">
-        <v>1632.994111372251</v>
+        <v>1117717.942034394</v>
       </c>
       <c r="J52">
-        <v>-601.9155768768373</v>
+        <v>4840790.357380787</v>
       </c>
       <c r="K52">
-        <v>-3372.553064503707</v>
+        <v>3981000.194116123</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2259,31 +2253,31 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>29.69454436650502</v>
+        <v>1116397.931334654</v>
       </c>
       <c r="G53">
-        <v>711.6736889090465</v>
+        <v>4841842.806055549</v>
       </c>
       <c r="H53">
-        <v>2657.568441144546</v>
+        <v>3986342.269328457</v>
       </c>
       <c r="I53">
-        <v>1753.358454100882</v>
+        <v>1117817.878782403</v>
       </c>
       <c r="J53">
-        <v>-669.6121616013777</v>
+        <v>4840741.705795947</v>
       </c>
       <c r="K53">
-        <v>-3826.896473659066</v>
+        <v>3980546.557393592</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2294,31 +2288,31 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>29.36283282309273</v>
+        <v>1116397.516934953</v>
       </c>
       <c r="G54">
-        <v>730.4295360566248</v>
+        <v>4841859.31884638</v>
       </c>
       <c r="H54">
-        <v>2666.61922711376</v>
+        <v>3986349.0020171</v>
       </c>
       <c r="I54">
-        <v>1876.686658036043</v>
+        <v>1117920.276380891</v>
       </c>
       <c r="J54">
-        <v>-737.3087463259187</v>
+        <v>4840693.054211106</v>
       </c>
       <c r="K54">
-        <v>-4296.412131750323</v>
+        <v>3980077.77202107</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2326,34 +2320,34 @@
         <v>77</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D55" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E55">
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>270.6224646394458</v>
+        <v>1116576.524236396</v>
       </c>
       <c r="G55">
-        <v>-125.2491172657532</v>
+        <v>4841124.094628658</v>
       </c>
       <c r="H55">
-        <v>761.8716857145171</v>
+        <v>3985223.354753943</v>
       </c>
       <c r="I55">
-        <v>-1761.080038980058</v>
+        <v>1114860.618141178</v>
       </c>
       <c r="J55">
-        <v>1981.503107363968</v>
+        <v>4843223.825070892</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984368.889297755</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2361,34 +2355,34 @@
         <v>77</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D56" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E56">
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>270.6224646394458</v>
+        <v>1116576.524236396</v>
       </c>
       <c r="G56">
-        <v>-125.2491172657532</v>
+        <v>4841124.094628658</v>
       </c>
       <c r="H56">
-        <v>761.8716857145171</v>
+        <v>3985223.354753943</v>
       </c>
       <c r="I56">
-        <v>-1726.311629717054</v>
+        <v>1114890.232118004</v>
       </c>
       <c r="J56">
-        <v>1933.301470730754</v>
+        <v>4843175.173477128</v>
       </c>
       <c r="K56">
-        <v>142.5615232042937</v>
+        <v>3984672.685180555</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2396,34 +2390,34 @@
         <v>77</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D57" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E57">
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>270.6224646394458</v>
+        <v>1116576.524236396</v>
       </c>
       <c r="G57">
-        <v>-125.2491172657532</v>
+        <v>4841124.094628658</v>
       </c>
       <c r="H57">
-        <v>761.8716857145171</v>
+        <v>3985223.354753943</v>
       </c>
       <c r="I57">
-        <v>-1690.687080362299</v>
+        <v>1114920.575311765</v>
       </c>
       <c r="J57">
-        <v>1885.09983409754</v>
+        <v>4843126.521883363</v>
       </c>
       <c r="K57">
-        <v>278.0142753830588</v>
+        <v>3984961.332408089</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2431,34 +2425,34 @@
         <v>77</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D58" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E58">
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>270.6224646394458</v>
+        <v>1116576.524236396</v>
       </c>
       <c r="G58">
-        <v>-125.2491172657532</v>
+        <v>4841124.094628658</v>
       </c>
       <c r="H58">
-        <v>761.8716857145171</v>
+        <v>3985223.354753943</v>
       </c>
       <c r="I58">
-        <v>-1654.185309253668</v>
+        <v>1114951.665678757</v>
       </c>
       <c r="J58">
-        <v>1836.898197464326</v>
+        <v>4843077.870289598</v>
       </c>
       <c r="K58">
-        <v>406.3582565362962</v>
+        <v>3985234.830980355</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2466,34 +2460,34 @@
         <v>77</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D59" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E59">
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>270.6224646394458</v>
+        <v>1116576.524236396</v>
       </c>
       <c r="G59">
-        <v>-125.2491172657532</v>
+        <v>4841124.094628658</v>
       </c>
       <c r="H59">
-        <v>761.8716857145171</v>
+        <v>3985223.354753943</v>
       </c>
       <c r="I59">
-        <v>-1616.7847156125</v>
+        <v>1114983.521617434</v>
       </c>
       <c r="J59">
-        <v>1788.696560831113</v>
+        <v>4843029.218695833</v>
       </c>
       <c r="K59">
-        <v>527.5934666640051</v>
+        <v>3985493.180897356</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2501,34 +2495,34 @@
         <v>77</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D60" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E60">
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>270.6224646394458</v>
+        <v>1116576.524236396</v>
       </c>
       <c r="G60">
-        <v>-125.2491172657532</v>
+        <v>4841124.094628658</v>
       </c>
       <c r="H60">
-        <v>761.8716857145171</v>
+        <v>3985223.354753943</v>
       </c>
       <c r="I60">
-        <v>-1578.463166760833</v>
+        <v>1115016.161979295</v>
       </c>
       <c r="J60">
-        <v>1740.494924197899</v>
+        <v>4842980.567102069</v>
       </c>
       <c r="K60">
-        <v>641.7199057661865</v>
+        <v>3985736.382159089</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2536,34 +2530,34 @@
         <v>77</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D61" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E61">
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>270.6224646394458</v>
+        <v>1116576.524236396</v>
       </c>
       <c r="G61">
-        <v>-125.2491172657532</v>
+        <v>4841124.094628658</v>
       </c>
       <c r="H61">
-        <v>761.8716857145171</v>
+        <v>3985223.354753943</v>
       </c>
       <c r="I61">
-        <v>-1539.197985023873</v>
+        <v>1115049.606080037</v>
       </c>
       <c r="J61">
-        <v>1692.293287564685</v>
+        <v>4842931.915508303</v>
       </c>
       <c r="K61">
-        <v>748.7375738428395</v>
+        <v>3985964.434765555</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2571,34 +2565,34 @@
         <v>77</v>
       </c>
       <c r="B62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D62" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E62">
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>270.6224646394458</v>
+        <v>1116576.524236396</v>
       </c>
       <c r="G62">
-        <v>-125.2491172657532</v>
+        <v>4841124.094628658</v>
       </c>
       <c r="H62">
-        <v>761.8716857145171</v>
+        <v>3985223.354753943</v>
       </c>
       <c r="I62">
-        <v>-1498.965934309945</v>
+        <v>1115083.873710992</v>
       </c>
       <c r="J62">
-        <v>1644.091650931471</v>
+        <v>4842883.263914539</v>
       </c>
       <c r="K62">
-        <v>848.6464708939645</v>
+        <v>3986177.338716755</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2606,34 +2600,34 @@
         <v>77</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D63" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E63">
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>270.6224646394458</v>
+        <v>1116576.524236396</v>
       </c>
       <c r="G63">
-        <v>-104.5669624744691</v>
+        <v>4841140.60744627</v>
       </c>
       <c r="H63">
-        <v>761.8716857145171</v>
+        <v>3985223.354753943</v>
       </c>
       <c r="I63">
-        <v>-1457.743206359995</v>
+        <v>1115118.985150833</v>
       </c>
       <c r="J63">
-        <v>1595.890014298258</v>
+        <v>4842834.612320774</v>
       </c>
       <c r="K63">
-        <v>941.4465969195611</v>
+        <v>3986375.094012688</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2641,34 +2635,34 @@
         <v>77</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D64" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E64">
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>210.0346024185671</v>
+        <v>1116527.843758933</v>
       </c>
       <c r="G64">
-        <v>-83.88480768318506</v>
+        <v>4841157.120263881</v>
       </c>
       <c r="H64">
-        <v>938.6207901231874</v>
+        <v>3985422.608912047</v>
       </c>
       <c r="I64">
-        <v>-1415.505406658491</v>
+        <v>1115154.961177579</v>
       </c>
       <c r="J64">
-        <v>1547.688377665044</v>
+        <v>4842785.96072701</v>
       </c>
       <c r="K64">
-        <v>1027.137951919629</v>
+        <v>3986557.700653354</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2676,34 +2670,34 @@
         <v>77</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D65" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E65">
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>174.4422727790693</v>
+        <v>1116499.246420501</v>
       </c>
       <c r="G65">
-        <v>-63.20265289190102</v>
+        <v>4841173.633081494</v>
       </c>
       <c r="H65">
-        <v>1043.90159600136</v>
+        <v>3985541.294878857</v>
       </c>
       <c r="I65">
-        <v>-1372.227539997401</v>
+        <v>1115191.823080886</v>
       </c>
       <c r="J65">
-        <v>1499.48674103183</v>
+        <v>4842737.309133244</v>
       </c>
       <c r="K65">
-        <v>1105.72053589417</v>
+        <v>3986725.158638754</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2711,34 +2705,34 @@
         <v>77</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D66" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E66">
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>151.9737831252023</v>
+        <v>1116481.193682475</v>
       </c>
       <c r="G66">
-        <v>-42.52049810061697</v>
+        <v>4841190.145899106</v>
       </c>
       <c r="H66">
-        <v>1119.138672304847</v>
+        <v>3985626.111717659</v>
       </c>
       <c r="I66">
-        <v>-1327.883995684688</v>
+        <v>1115229.59267465</v>
       </c>
       <c r="J66">
-        <v>1451.285104398616</v>
+        <v>4842688.657539479</v>
       </c>
       <c r="K66">
-        <v>1177.194348843183</v>
+        <v>3986877.467968886</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2746,34 +2740,34 @@
         <v>77</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D67" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E67">
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>136.3043496455495</v>
+        <v>1116468.603776256</v>
       </c>
       <c r="G67">
-        <v>-21.83834330933291</v>
+        <v>4841206.658716717</v>
       </c>
       <c r="H67">
-        <v>1177.725743314079</v>
+        <v>3985692.158544593</v>
       </c>
       <c r="I67">
-        <v>-1282.448532388588</v>
+        <v>1115268.292309912</v>
       </c>
       <c r="J67">
-        <v>1403.083467765402</v>
+        <v>4842640.005945715</v>
       </c>
       <c r="K67">
-        <v>1241.559390766667</v>
+        <v>3987014.628643753</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2781,34 +2775,34 @@
         <v>77</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D68" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E68">
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>124.6144830237354</v>
+        <v>1116459.211329192</v>
       </c>
       <c r="G68">
-        <v>-1.156188518048878</v>
+        <v>4841223.171534329</v>
       </c>
       <c r="H68">
-        <v>1225.7130988981</v>
+        <v>3985746.256018911</v>
       </c>
       <c r="I68">
-        <v>-1235.894262608682</v>
+        <v>1115307.94488809</v>
       </c>
       <c r="J68">
-        <v>1354.881831132189</v>
+        <v>4842591.35435195</v>
       </c>
       <c r="K68">
-        <v>1298.815661664623</v>
+        <v>3987136.640663352</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2816,34 +2810,34 @@
         <v>77</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D69" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E69">
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>115.4746397669538</v>
+        <v>1116451.867747205</v>
       </c>
       <c r="G69">
-        <v>19.52596627323517</v>
+        <v>4841239.684351941</v>
       </c>
       <c r="H69">
-        <v>1266.354886170586</v>
+        <v>3985792.072630735</v>
       </c>
       <c r="I69">
-        <v>-1188.193636764588</v>
+        <v>1115348.573874526</v>
       </c>
       <c r="J69">
-        <v>1306.680194498975</v>
+        <v>4842542.702758185</v>
       </c>
       <c r="K69">
-        <v>1348.963161537051</v>
+        <v>3987243.504027684</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2851,34 +2845,34 @@
         <v>77</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E70">
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>108.0798410784084</v>
+        <v>1116445.926254673</v>
       </c>
       <c r="G70">
-        <v>40.20812106451923</v>
+        <v>4841256.197169553</v>
       </c>
       <c r="H70">
-        <v>1301.604234656893</v>
+        <v>3985831.810197043</v>
       </c>
       <c r="I70">
-        <v>-1139.318426892853</v>
+        <v>1115390.203312375</v>
       </c>
       <c r="J70">
-        <v>1258.478557865762</v>
+        <v>4842494.05116442</v>
       </c>
       <c r="K70">
-        <v>1392.001890383951</v>
+        <v>3987335.21873675</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2886,34 +2880,34 @@
         <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D71" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E71">
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>101.9395232525321</v>
+        <v>1116440.992698799</v>
       </c>
       <c r="G71">
-        <v>60.89027585580327</v>
+        <v>4841272.709987164</v>
       </c>
       <c r="H71">
-        <v>1332.725921316901</v>
+        <v>3985866.894535913</v>
       </c>
       <c r="I71">
-        <v>-1089.239709942397</v>
+        <v>1115432.857836833</v>
       </c>
       <c r="J71">
-        <v>1210.276921232548</v>
+        <v>4842445.399570655</v>
       </c>
       <c r="K71">
-        <v>1427.931848205323</v>
+        <v>3987411.784790548</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2921,34 +2915,34 @@
         <v>77</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D72" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E72">
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>96.73606589661433</v>
+        <v>1116436.8118814</v>
       </c>
       <c r="G72">
-        <v>81.57243064708733</v>
+        <v>4841289.222804776</v>
       </c>
       <c r="H72">
-        <v>1360.58609345972</v>
+        <v>3985898.302079185</v>
       </c>
       <c r="I72">
-        <v>-1037.92785065861</v>
+        <v>1115476.562689713</v>
       </c>
       <c r="J72">
-        <v>1162.075284599334</v>
+        <v>4842396.747976891</v>
       </c>
       <c r="K72">
-        <v>1456.753035001167</v>
+        <v>3987473.202189081</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2956,34 +2950,34 @@
         <v>77</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D73" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E73">
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>92.25379503569683</v>
+        <v>1116433.210515093</v>
       </c>
       <c r="G73">
-        <v>102.2545854383714</v>
+        <v>4841305.735622388</v>
       </c>
       <c r="H73">
-        <v>1385.803974071677</v>
+        <v>3985926.730894071</v>
       </c>
       <c r="I73">
-        <v>-985.3524840460044</v>
+        <v>1115521.343734389</v>
       </c>
       <c r="J73">
-        <v>1113.87364796612</v>
+        <v>4842348.096383126</v>
       </c>
       <c r="K73">
-        <v>1478.465450771483</v>
+        <v>3987519.470932346</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2991,34 +2985,34 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D74" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E74">
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>88.34054096740645</v>
+        <v>1116430.066336218</v>
       </c>
       <c r="G74">
-        <v>122.9367402296554</v>
+        <v>4841322.24844</v>
       </c>
       <c r="H74">
-        <v>1408.837628578895</v>
+        <v>3985952.697370406</v>
       </c>
       <c r="I74">
-        <v>-931.4824973990143</v>
+        <v>1115567.227471092</v>
       </c>
       <c r="J74">
-        <v>1065.672011332906</v>
+        <v>4842299.444789361</v>
       </c>
       <c r="K74">
-        <v>1493.069095516271</v>
+        <v>3987550.591020345</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3026,34 +3020,34 @@
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D75" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E75">
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>84.88550748478242</v>
+        <v>1116427.290323442</v>
       </c>
       <c r="G75">
-        <v>143.6188950209395</v>
+        <v>4841338.761257612</v>
       </c>
       <c r="H75">
-        <v>1430.035451049443</v>
+        <v>3985976.594262467</v>
       </c>
       <c r="I75">
-        <v>-876.2860118903207</v>
+        <v>1115614.241052598</v>
       </c>
       <c r="J75">
-        <v>1017.470374699693</v>
+        <v>4842250.793195596</v>
       </c>
       <c r="K75">
-        <v>1500.56396923553</v>
+        <v>3987566.562453077</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3061,34 +3055,34 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D76" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E76">
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>81.80587401870683</v>
+        <v>1116424.815932994</v>
       </c>
       <c r="G76">
-        <v>164.3010498122235</v>
+        <v>4841355.274075224</v>
       </c>
       <c r="H76">
-        <v>1449.668601699609</v>
+        <v>3985998.727256673</v>
       </c>
       <c r="I76">
-        <v>-819.730363705811</v>
+        <v>1115662.412300298</v>
       </c>
       <c r="J76">
-        <v>969.2687380664789</v>
+        <v>4842202.141601832</v>
       </c>
       <c r="K76">
-        <v>1500.950071929261</v>
+        <v>3987567.385230543</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3096,34 +3090,34 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D77" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E77">
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>79.03833698600637</v>
+        <v>1116422.592302399</v>
       </c>
       <c r="G77">
-        <v>184.9832046035076</v>
+        <v>4841371.786892836</v>
       </c>
       <c r="H77">
-        <v>1467.95227318573</v>
+        <v>3986019.338945661</v>
       </c>
       <c r="I77">
-        <v>-761.7820847150002</v>
+        <v>1115711.769720655</v>
       </c>
       <c r="J77">
-        <v>921.0671014332651</v>
+        <v>4842153.490008066</v>
       </c>
       <c r="K77">
-        <v>1494.227403597465</v>
+        <v>3987553.05935274</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3131,34 +3125,34 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D78" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E78">
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>76.53357639085036</v>
+        <v>1116420.579804561</v>
       </c>
       <c r="G78">
-        <v>205.6653593947916</v>
+        <v>4841388.299710447</v>
       </c>
       <c r="H78">
-        <v>1485.060106384756</v>
+        <v>3986038.625079599</v>
       </c>
       <c r="I78">
-        <v>-702.4068826654793</v>
+        <v>1115762.342522081</v>
       </c>
       <c r="J78">
-        <v>872.8654648000514</v>
+        <v>4842104.838414301</v>
       </c>
       <c r="K78">
-        <v>1480.39596424014</v>
+        <v>3987523.584819672</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3166,34 +3160,34 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D79" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E79">
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>74.25252417632427</v>
+        <v>1116418.747049503</v>
       </c>
       <c r="G79">
-        <v>226.3475141860757</v>
+        <v>4841404.81252806</v>
       </c>
       <c r="H79">
-        <v>1501.134244239832</v>
+        <v>3986056.745900162</v>
       </c>
       <c r="I79">
-        <v>-641.5696208896736</v>
+        <v>1115814.160632216</v>
       </c>
       <c r="J79">
-        <v>824.6638281668376</v>
+        <v>4842056.186820537</v>
       </c>
       <c r="K79">
-        <v>1459.455753857287</v>
+        <v>3987478.961631337</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3201,34 +3195,34 @@
         <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C80" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D80" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E80">
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>72.16378041679846</v>
+        <v>1116417.068808354</v>
       </c>
       <c r="G80">
-        <v>247.0296689773597</v>
+        <v>4841421.325345671</v>
       </c>
       <c r="H80">
-        <v>1516.292517499642</v>
+        <v>3986073.834241213</v>
       </c>
       <c r="I80">
-        <v>-579.2342975118934</v>
+        <v>1115867.254715641</v>
       </c>
       <c r="J80">
-        <v>776.4621915336237</v>
+        <v>4842007.535226772</v>
       </c>
       <c r="K80">
-        <v>1431.406772448906</v>
+        <v>3987419.189787735</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3236,34 +3230,34 @@
         <v>77</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D81" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E81">
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>70.24178254618676</v>
+        <v>1116415.524542381</v>
       </c>
       <c r="G81">
-        <v>267.7118237686437</v>
+        <v>4841437.838163283</v>
       </c>
       <c r="H81">
-        <v>1530.63369141724</v>
+        <v>3986090.001443557</v>
       </c>
       <c r="I81">
-        <v>-515.3640241433815</v>
+        <v>1115921.656192025</v>
       </c>
       <c r="J81">
-        <v>728.2605549004102</v>
+        <v>4841958.883633006</v>
       </c>
       <c r="K81">
-        <v>1396.249020014997</v>
+        <v>3987344.269288866</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3271,34 +3265,34 @@
         <v>77</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D82" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E82">
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>68.46548150306401</v>
+        <v>1116414.097339312</v>
       </c>
       <c r="G82">
-        <v>288.3939785599279</v>
+        <v>4841454.350980896</v>
       </c>
       <c r="H82">
-        <v>1544.24136927601</v>
+        <v>3986105.34175549</v>
       </c>
       <c r="I82">
-        <v>-449.9210040527432</v>
+        <v>1115977.397254716</v>
       </c>
       <c r="J82">
-        <v>680.0589182671963</v>
+        <v>4841910.232039242</v>
       </c>
       <c r="K82">
-        <v>1353.98249655556</v>
+        <v>3987254.200134732</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3306,34 +3300,34 @@
         <v>77</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D83" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E83">
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>66.81736697941277</v>
+        <v>1116412.773130156</v>
       </c>
       <c r="G83">
-        <v>309.0761333512118</v>
+        <v>4841470.863798507</v>
       </c>
       <c r="H83">
-        <v>1557.186945350214</v>
+        <v>3986119.935661753</v>
       </c>
       <c r="I83">
-        <v>-382.8665097988478</v>
+        <v>1116034.510889795</v>
       </c>
       <c r="J83">
-        <v>631.8572816339824</v>
+        <v>4841861.580445478</v>
       </c>
       <c r="K83">
-        <v>1304.607202070594</v>
+        <v>3987148.982325329</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3341,34 +3335,34 @@
         <v>77</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D84" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E84">
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>65.28273802108936</v>
+        <v>1116411.540103149</v>
       </c>
       <c r="G84">
-        <v>329.7582881424959</v>
+        <v>4841487.376616118</v>
       </c>
       <c r="H84">
-        <v>1569.531872219246</v>
+        <v>3986133.85243954</v>
       </c>
       <c r="I84">
-        <v>-314.160860312954</v>
+        <v>1116093.030895595</v>
       </c>
       <c r="J84">
-        <v>583.6556450007688</v>
+        <v>4841812.928851712</v>
       </c>
       <c r="K84">
-        <v>1248.123136560101</v>
+        <v>3987028.615860661</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3376,34 +3370,34 @@
         <v>77</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C85" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D85" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E85">
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>63.84914923010053</v>
+        <v>1116410.388258798</v>
       </c>
       <c r="G85">
-        <v>350.44044293378</v>
+        <v>4841503.889433731</v>
       </c>
       <c r="H85">
-        <v>1581.329425027379</v>
+        <v>3986147.152147396</v>
       </c>
       <c r="I85">
-        <v>-243.7633974165085</v>
+        <v>1116152.991902699</v>
       </c>
       <c r="J85">
-        <v>535.4540083675549</v>
+        <v>4841764.277257947</v>
       </c>
       <c r="K85">
-        <v>1184.53030002408</v>
+        <v>3986893.100740725</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3411,34 +3405,34 @@
         <v>77</v>
       </c>
       <c r="B86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D86" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E86">
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>62.50598472739669</v>
+        <v>1116409.309067572</v>
       </c>
       <c r="G86">
-        <v>371.122597725064</v>
+        <v>4841520.402251342</v>
       </c>
       <c r="H86">
-        <v>1592.626090954085</v>
+        <v>3986159.887191606</v>
       </c>
       <c r="I86">
-        <v>-171.632461760716</v>
+        <v>1116214.429394441</v>
       </c>
       <c r="J86">
-        <v>487.2523717343414</v>
+        <v>4841715.625664183</v>
       </c>
       <c r="K86">
-        <v>1113.82869246253</v>
+        <v>3986742.436965522</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3446,34 +3440,34 @@
         <v>77</v>
       </c>
       <c r="B87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D87" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E87">
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>61.24412646179361</v>
+        <v>1116408.295203398</v>
       </c>
       <c r="G87">
-        <v>391.8047525163481</v>
+        <v>4841536.915068954</v>
       </c>
       <c r="H87">
-        <v>1603.46267555549</v>
+        <v>3986172.103573401</v>
       </c>
       <c r="I87">
-        <v>-97.72536817364352</v>
+        <v>1116277.379727896</v>
       </c>
       <c r="J87">
-        <v>439.0507351011275</v>
+        <v>4841666.974070419</v>
       </c>
       <c r="K87">
-        <v>1036.018313875452</v>
+        <v>3986576.624535053</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3481,34 +3475,34 @@
         <v>77</v>
       </c>
       <c r="B88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C88" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D88" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E88">
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>60.05569313977703</v>
+        <v>1116407.340333901</v>
       </c>
       <c r="G88">
-        <v>412.4869073076321</v>
+        <v>4841553.427886565</v>
       </c>
       <c r="H88">
-        <v>1613.875192505473</v>
+        <v>3986183.841891994</v>
       </c>
       <c r="I88">
-        <v>-21.99838040026904</v>
+        <v>1116341.880155398</v>
       </c>
       <c r="J88">
-        <v>390.8490984679137</v>
+        <v>4841618.322476652</v>
       </c>
       <c r="K88">
-        <v>951.0991642628464</v>
+        <v>3986395.663449317</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3516,34 +3510,34 @@
         <v>77</v>
       </c>
       <c r="B89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D89" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E89">
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>58.93383267577017</v>
+        <v>1116406.43895364</v>
       </c>
       <c r="G89">
-        <v>433.1690620989162</v>
+        <v>4841569.940704178</v>
       </c>
       <c r="H89">
-        <v>1623.895585712103</v>
+        <v>3986195.138158637</v>
       </c>
       <c r="I89">
-        <v>55.59331477947369</v>
+        <v>1116407.968846588</v>
       </c>
       <c r="J89">
-        <v>342.6474618347001</v>
+        <v>4841569.670882888</v>
       </c>
       <c r="K89">
-        <v>859.0712436247127</v>
+        <v>3986199.553708315</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3551,34 +3545,34 @@
         <v>77</v>
       </c>
       <c r="B90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C90" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D90" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E90">
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>57.87255566684893</v>
+        <v>1116405.586250316</v>
       </c>
       <c r="G90">
-        <v>453.8512168902002</v>
+        <v>4841586.45352179</v>
       </c>
       <c r="H90">
-        <v>1633.55232033338</v>
+        <v>3986206.02446289</v>
       </c>
       <c r="I90">
-        <v>135.0956340699668</v>
+        <v>1116475.684910998</v>
       </c>
       <c r="J90">
-        <v>294.4458252014862</v>
+        <v>4841521.019289124</v>
       </c>
       <c r="K90">
-        <v>759.9345519610507</v>
+        <v>3985988.295312046</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3586,34 +3580,34 @@
         <v>77</v>
       </c>
       <c r="B91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C91" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D91" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E91">
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>56.86660064440885</v>
+        <v>1116404.777996501</v>
       </c>
       <c r="G91">
-        <v>474.5333716814843</v>
+        <v>4841602.966339401</v>
       </c>
       <c r="H91">
-        <v>1642.870870256042</v>
+        <v>3986216.52952217</v>
       </c>
       <c r="I91">
-        <v>216.5556248321965</v>
+        <v>1116545.068421198</v>
       </c>
       <c r="J91">
-        <v>246.2441885682726</v>
+        <v>4841472.367695359</v>
       </c>
       <c r="K91">
-        <v>653.6890892718609</v>
+        <v>3985761.888260509</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3621,34 +3615,34 @@
         <v>77</v>
       </c>
       <c r="B92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C92" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D92" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E92">
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>55.91132417910047</v>
+        <v>1116404.010461342</v>
       </c>
       <c r="G92">
-        <v>495.2155264727683</v>
+        <v>4841619.479157014</v>
       </c>
       <c r="H92">
-        <v>1651.874123068351</v>
+        <v>3986226.67913829</v>
       </c>
       <c r="I92">
-        <v>300.0214929251278</v>
+        <v>1116616.160436503</v>
       </c>
       <c r="J92">
-        <v>198.0425519350588</v>
+        <v>4841423.716101593</v>
       </c>
       <c r="K92">
-        <v>540.3348555571423</v>
+        <v>3985520.332553706</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3656,34 +3650,34 @@
         <v>77</v>
       </c>
       <c r="B93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C93" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D93" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E93">
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>55.00261059900659</v>
+        <v>1116403.280338025</v>
       </c>
       <c r="G93">
-        <v>515.8976812640524</v>
+        <v>4841635.991974626</v>
       </c>
       <c r="H93">
-        <v>1660.582718736681</v>
+        <v>3986236.496579255</v>
       </c>
       <c r="I93">
-        <v>385.5426312326578</v>
+        <v>1116689.003027283</v>
       </c>
       <c r="J93">
-        <v>149.8409153018449</v>
+        <v>4841375.064507829</v>
       </c>
       <c r="K93">
-        <v>419.8718508168959</v>
+        <v>3985263.628191637</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3691,34 +3685,34 @@
         <v>77</v>
       </c>
       <c r="B94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D94" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E94">
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>54.13679731538527</v>
+        <v>1116402.584683772</v>
       </c>
       <c r="G94">
-        <v>536.5798360553364</v>
+        <v>4841652.504792237</v>
       </c>
       <c r="H94">
-        <v>1669.015334597712</v>
+        <v>3986246.002900544</v>
       </c>
       <c r="I94">
-        <v>473.1696488930046</v>
+        <v>1116763.639299846</v>
       </c>
       <c r="J94">
-        <v>101.6392786686313</v>
+        <v>4841326.412914064</v>
       </c>
       <c r="K94">
-        <v>292.3000750511217</v>
+        <v>3984991.7751743</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3726,34 +3720,34 @@
         <v>77</v>
       </c>
       <c r="B95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C95" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D95" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E95">
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>53.31061266525074</v>
+        <v>1116401.920869903</v>
       </c>
       <c r="G95">
-        <v>557.2619908466204</v>
+        <v>4841669.01760985</v>
       </c>
       <c r="H95">
-        <v>1677.188926564781</v>
+        <v>3986255.217217027</v>
       </c>
       <c r="I95">
-        <v>562.9544012478615</v>
+        <v>1116840.113421957</v>
       </c>
       <c r="J95">
-        <v>53.43764203541748</v>
+        <v>4841277.761320299</v>
       </c>
       <c r="K95">
-        <v>157.619528259819</v>
+        <v>3984704.773501697</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3761,34 +3755,34 @@
         <v>77</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D96" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E96">
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>52.52112386521252</v>
+        <v>1116401.286540017</v>
       </c>
       <c r="G96">
-        <v>577.9441456379045</v>
+        <v>4841685.530427461</v>
       </c>
       <c r="H96">
-        <v>1685.118934380968</v>
+        <v>3986264.156934354</v>
       </c>
       <c r="I96">
-        <v>654.9500205289984</v>
+        <v>1116918.47064897</v>
       </c>
       <c r="J96">
-        <v>5.236005402203636</v>
+        <v>4841229.109726534</v>
       </c>
       <c r="K96">
-        <v>15.83021044298825</v>
+        <v>3984402.623173827</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3796,34 +3790,34 @@
         <v>77</v>
       </c>
       <c r="B97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D97" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E97">
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>51.76569318899892</v>
+        <v>1116400.679574782</v>
       </c>
       <c r="G97">
-        <v>598.6263004291885</v>
+        <v>4841702.043245072</v>
       </c>
       <c r="H97">
-        <v>1692.819457164027</v>
+        <v>3986272.83794685</v>
       </c>
       <c r="I97">
-        <v>749.2109473005146</v>
+        <v>1116998.757350612</v>
       </c>
       <c r="J97">
-        <v>-42.96563123100998</v>
+        <v>4841180.45813277</v>
       </c>
       <c r="K97">
-        <v>-133.0678783993702</v>
+        <v>3984085.32419069</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3831,34 +3825,34 @@
         <v>77</v>
       </c>
       <c r="B98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C98" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D98" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E98">
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>51.04194087623296</v>
+        <v>1116400.098062135</v>
       </c>
       <c r="G98">
-        <v>619.3084552204725</v>
+        <v>4841718.556062684</v>
       </c>
       <c r="H98">
-        <v>1700.303404258272</v>
+        <v>3986281.274807577</v>
       </c>
       <c r="I98">
-        <v>845.7929626753173</v>
+        <v>1117081.021038418</v>
       </c>
       <c r="J98">
-        <v>-91.16726786422382</v>
+        <v>4841131.806539005</v>
       </c>
       <c r="K98">
-        <v>-289.0747382672571</v>
+        <v>3983752.876552287</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3866,34 +3860,34 @@
         <v>77</v>
       </c>
       <c r="B99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C99" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D99" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E99">
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>50.34771358398602</v>
+        <v>1116399.54027193</v>
       </c>
       <c r="G99">
-        <v>639.9906100117566</v>
+        <v>4841735.068880296</v>
       </c>
       <c r="H99">
-        <v>1707.58262544774</v>
+        <v>3986289.480875125</v>
       </c>
       <c r="I99">
-        <v>944.7532213249004</v>
+        <v>1117165.310393856</v>
       </c>
       <c r="J99">
-        <v>-139.3689044974377</v>
+        <v>4841083.154945239</v>
       </c>
       <c r="K99">
-        <v>-452.1903691606725</v>
+        <v>3983405.280258617</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3901,34 +3895,34 @@
         <v>77</v>
       </c>
       <c r="B100" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C100" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D100" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E100">
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>49.68105742830802</v>
+        <v>1116399.004634283</v>
       </c>
       <c r="G100">
-        <v>660.6727648030406</v>
+        <v>4841751.581697908</v>
       </c>
       <c r="H100">
-        <v>1714.668023828986</v>
+        <v>3986297.468440855</v>
       </c>
       <c r="I100">
-        <v>1046.150285301961</v>
+        <v>1117251.675297126</v>
       </c>
       <c r="J100">
-        <v>-187.5705411306515</v>
+        <v>4841034.503351475</v>
       </c>
       <c r="K100">
-        <v>-622.4147710796158</v>
+        <v>3983042.53530968</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3936,34 +3930,34 @@
         <v>77</v>
       </c>
       <c r="B101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C101" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D101" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E101">
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>49.04019484700833</v>
+        <v>1116398.489720977</v>
       </c>
       <c r="G101">
-        <v>681.3549195943247</v>
+        <v>4841768.09451552</v>
       </c>
       <c r="H101">
-        <v>1721.569654042834</v>
+        <v>3986305.248839644</v>
       </c>
       <c r="I101">
-        <v>1150.044158695867</v>
+        <v>1117340.166856685</v>
       </c>
       <c r="J101">
-        <v>-235.7721777638649</v>
+        <v>4840985.85175771</v>
       </c>
       <c r="K101">
-        <v>-799.7479440240859</v>
+        <v>3982664.641705476</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3971,34 +3965,34 @@
         <v>77</v>
       </c>
       <c r="B102" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C102" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D102" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E102">
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>48.42350465975847</v>
+        <v>1116397.994229444</v>
       </c>
       <c r="G102">
-        <v>702.0370743856088</v>
+        <v>4841784.607333132</v>
       </c>
       <c r="H102">
-        <v>1728.29680808651</v>
+        <v>3986312.832546616</v>
       </c>
       <c r="I102">
-        <v>1256.496323141489</v>
+        <v>1117430.837439488</v>
       </c>
       <c r="J102">
-        <v>-283.9738143970787</v>
+        <v>4840937.200163946</v>
       </c>
       <c r="K102">
-        <v>-984.1898879940851</v>
+        <v>3982271.599446006</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4006,34 +4000,34 @@
         <v>77</v>
       </c>
       <c r="B103" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C103" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D103" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E103">
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>47.82950481623288</v>
+        <v>1116397.516968902</v>
       </c>
       <c r="G103">
-        <v>722.7192291768928</v>
+        <v>4841801.120150744</v>
       </c>
       <c r="H103">
-        <v>1734.858090544071</v>
+        <v>3986320.229261957</v>
       </c>
       <c r="I103">
-        <v>1365.569774202388</v>
+        <v>1117523.740701977</v>
       </c>
       <c r="J103">
-        <v>-332.1754510302925</v>
+        <v>4840888.54857018</v>
       </c>
       <c r="K103">
-        <v>-1175.740602989613</v>
+        <v>3981863.408531269</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4041,34 +4035,34 @@
         <v>77</v>
       </c>
       <c r="B104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C104" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D104" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E104">
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>47.25683741435086</v>
+        <v>1116397.056848317</v>
       </c>
       <c r="G104">
-        <v>743.4013839681768</v>
+        <v>4841817.632968356</v>
       </c>
       <c r="H104">
-        <v>1741.261484763341</v>
+        <v>3986327.447985517</v>
       </c>
       <c r="I104">
-        <v>1477.329058649926</v>
+        <v>1117618.931621835</v>
       </c>
       <c r="J104">
-        <v>-380.3770876635064</v>
+        <v>4840839.896976415</v>
       </c>
       <c r="K104">
-        <v>-1374.400089010669</v>
+        <v>3981440.068961265</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4076,34 +4070,34 @@
         <v>77</v>
       </c>
       <c r="B105" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C105" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D105" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E105">
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>46.70425564390007</v>
+        <v>1116396.612865918</v>
       </c>
       <c r="G105">
-        <v>764.083538759461</v>
+        <v>4841834.145785968</v>
       </c>
       <c r="H105">
-        <v>1747.514411256124</v>
+        <v>3986334.497082644</v>
       </c>
       <c r="I105">
-        <v>1591.84031266033</v>
+        <v>1117716.46653052</v>
       </c>
       <c r="J105">
-        <v>-428.5787242967203</v>
+        <v>4840791.245382651</v>
       </c>
       <c r="K105">
-        <v>-1580.168346057252</v>
+        <v>3981001.580735994</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4111,34 +4105,34 @@
         <v>77</v>
       </c>
       <c r="B106" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D106" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E106">
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>46.17061236983001</v>
+        <v>1116396.184100017</v>
       </c>
       <c r="G106">
-        <v>784.765693550745</v>
+        <v>4841850.65860358</v>
       </c>
       <c r="H106">
-        <v>1753.623779393193</v>
+        <v>3986341.384342461</v>
       </c>
       <c r="I106">
-        <v>1709.171300952316</v>
+        <v>1117816.403146602</v>
       </c>
       <c r="J106">
-        <v>-476.7803609299336</v>
+        <v>4840742.593788886</v>
       </c>
       <c r="K106">
-        <v>-1793.045374129363</v>
+        <v>3980547.943855457</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4146,34 +4140,34 @@
         <v>77</v>
       </c>
       <c r="B107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C107" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D107" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E107">
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>45.6548501173281</v>
+        <v>1116395.769700964</v>
       </c>
       <c r="G107">
-        <v>805.4478483420289</v>
+        <v>4841867.171421192</v>
       </c>
       <c r="H107">
-        <v>1759.596033297207</v>
+        <v>3986348.11702961</v>
       </c>
       <c r="I107">
-        <v>1829.391456888463</v>
+        <v>1117918.800609914</v>
       </c>
       <c r="J107">
-        <v>-524.9819975631475</v>
+        <v>4840693.942195121</v>
       </c>
       <c r="K107">
-        <v>-2013.031173227003</v>
+        <v>3980079.158319653</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -4184,31 +4178,31 @@
         <v>11</v>
       </c>
       <c r="C108" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D108" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E108">
         <v>152.142</v>
       </c>
       <c r="F108">
-        <v>368.9300950860925</v>
+        <v>1116578.069612172</v>
       </c>
       <c r="G108">
-        <v>-124.8608510160217</v>
+        <v>4841130.28843691</v>
       </c>
       <c r="H108">
-        <v>852.8995528992293</v>
+        <v>3985228.072164835</v>
       </c>
       <c r="I108">
-        <v>-1527.755723201562</v>
+        <v>1114860.59769761</v>
       </c>
       <c r="J108">
-        <v>1812.853395460541</v>
+        <v>4843224.12925909</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>3984369.058088513</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -4219,31 +4213,31 @@
         <v>11</v>
       </c>
       <c r="C109" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D109" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E109">
         <v>153.142</v>
       </c>
       <c r="F109">
-        <v>368.9300950860925</v>
+        <v>1116578.069612172</v>
       </c>
       <c r="G109">
-        <v>-124.8608510160217</v>
+        <v>4841130.28843691</v>
       </c>
       <c r="H109">
-        <v>852.8995528992293</v>
+        <v>3985228.072164835</v>
       </c>
       <c r="I109">
-        <v>-1497.593757213389</v>
+        <v>1114890.211673893</v>
       </c>
       <c r="J109">
-        <v>1768.754296997091</v>
+        <v>4843175.47766227</v>
       </c>
       <c r="K109">
-        <v>188.9709007908316</v>
+        <v>3984672.853984183</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -4254,31 +4248,31 @@
         <v>11</v>
       </c>
       <c r="C110" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D110" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E110">
         <v>154.142</v>
       </c>
       <c r="F110">
-        <v>368.9300950860925</v>
+        <v>1116578.069612172</v>
       </c>
       <c r="G110">
-        <v>-124.8608510160217</v>
+        <v>4841130.28843691</v>
       </c>
       <c r="H110">
-        <v>852.8995528992293</v>
+        <v>3985228.072164835</v>
       </c>
       <c r="I110">
-        <v>-1466.689080561257</v>
+        <v>1114920.554867098</v>
       </c>
       <c r="J110">
-        <v>1724.65519853364</v>
+        <v>4843126.826065449</v>
       </c>
       <c r="K110">
-        <v>368.5188462567199</v>
+        <v>3984961.501223945</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -4289,31 +4283,31 @@
         <v>11</v>
       </c>
       <c r="C111" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D111" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E111">
         <v>155.142</v>
       </c>
       <c r="F111">
-        <v>368.9300950860925</v>
+        <v>1116578.069612172</v>
       </c>
       <c r="G111">
-        <v>-124.8608510160217</v>
+        <v>4841130.28843691</v>
       </c>
       <c r="H111">
-        <v>852.8995528992293</v>
+        <v>3985228.072164835</v>
       </c>
       <c r="I111">
-        <v>-1435.023404678346</v>
+        <v>1114951.64523352</v>
       </c>
       <c r="J111">
-        <v>1680.55610007019</v>
+        <v>4843078.174468628</v>
       </c>
       <c r="K111">
-        <v>538.6438363976664</v>
+        <v>3985234.999807797</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -4324,31 +4318,31 @@
         <v>11</v>
       </c>
       <c r="C112" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D112" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E112">
         <v>156.142</v>
       </c>
       <c r="F112">
-        <v>368.9300950860925</v>
+        <v>1116578.069612172</v>
       </c>
       <c r="G112">
-        <v>-124.8608510160217</v>
+        <v>4841130.28843691</v>
       </c>
       <c r="H112">
-        <v>852.8995528992293</v>
+        <v>3985228.072164835</v>
       </c>
       <c r="I112">
-        <v>-1402.577990658707</v>
+        <v>1114983.501171613</v>
       </c>
       <c r="J112">
-        <v>1636.45700160674</v>
+        <v>4843029.522871808</v>
       </c>
       <c r="K112">
-        <v>699.3458712136699</v>
+        <v>3985493.349735742</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -4359,31 +4353,31 @@
         <v>11</v>
       </c>
       <c r="C113" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E113">
         <v>157.142</v>
       </c>
       <c r="F113">
-        <v>368.9300950860925</v>
+        <v>1116578.069612172</v>
       </c>
       <c r="G113">
-        <v>-124.8608510160217</v>
+        <v>4841130.28843691</v>
       </c>
       <c r="H113">
-        <v>852.8995528992293</v>
+        <v>3985228.072164835</v>
       </c>
       <c r="I113">
-        <v>-1369.333638168068</v>
+        <v>1115016.141532874</v>
       </c>
       <c r="J113">
-        <v>1592.357903143289</v>
+        <v>4842980.871274988</v>
       </c>
       <c r="K113">
-        <v>850.6249507047316</v>
+        <v>3985736.551007778</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -4394,31 +4388,31 @@
         <v>11</v>
       </c>
       <c r="C114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D114" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E114">
         <v>158.142</v>
       </c>
       <c r="F114">
-        <v>368.9300950860925</v>
+        <v>1116578.069612172</v>
       </c>
       <c r="G114">
-        <v>-124.8608510160217</v>
+        <v>4841130.28843691</v>
       </c>
       <c r="H114">
-        <v>852.8995528992293</v>
+        <v>3985228.072164835</v>
       </c>
       <c r="I114">
-        <v>-1335.27067408159</v>
+        <v>1115049.585633003</v>
       </c>
       <c r="J114">
-        <v>1548.258804679838</v>
+        <v>4842932.219678167</v>
       </c>
       <c r="K114">
-        <v>992.4810748708506</v>
+        <v>3985964.603623906</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -4429,31 +4423,31 @@
         <v>11</v>
       </c>
       <c r="C115" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D115" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E115">
         <v>159.142</v>
       </c>
       <c r="F115">
-        <v>368.9300950860925</v>
+        <v>1116578.069612172</v>
       </c>
       <c r="G115">
-        <v>-124.8608510160217</v>
+        <v>4841130.28843691</v>
       </c>
       <c r="H115">
-        <v>852.8995528992293</v>
+        <v>3985228.072164835</v>
       </c>
       <c r="I115">
-        <v>-1300.368940841835</v>
+        <v>1115083.85326333</v>
       </c>
       <c r="J115">
-        <v>1504.159706216388</v>
+        <v>4842883.568081346</v>
       </c>
       <c r="K115">
-        <v>1124.914243712027</v>
+        <v>3986177.507584125</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -4464,31 +4458,31 @@
         <v>11</v>
       </c>
       <c r="C116" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D116" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E116">
         <v>160.142</v>
       </c>
       <c r="F116">
-        <v>368.9300950860925</v>
+        <v>1116578.069612172</v>
       </c>
       <c r="G116">
-        <v>-104.2428099115442</v>
+        <v>4841146.801275649</v>
       </c>
       <c r="H116">
-        <v>852.8995528992293</v>
+        <v>3985228.072164835</v>
       </c>
       <c r="I116">
-        <v>-1264.607784530058</v>
+        <v>1115118.964702528</v>
       </c>
       <c r="J116">
-        <v>1460.060607752937</v>
+        <v>4842834.916484526</v>
       </c>
       <c r="K116">
-        <v>1247.924457228261</v>
+        <v>3986375.262888435</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -4499,31 +4493,31 @@
         <v>11</v>
       </c>
       <c r="C117" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D117" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E117">
         <v>161.142</v>
       </c>
       <c r="F117">
-        <v>286.3327918651916</v>
+        <v>1116529.389067334</v>
       </c>
       <c r="G117">
-        <v>-83.62476880706677</v>
+        <v>4841163.314114387</v>
       </c>
       <c r="H117">
-        <v>1050.766509963154</v>
+        <v>3985427.3265588</v>
       </c>
       <c r="I117">
-        <v>-1227.966042643763</v>
+        <v>1115154.940728614</v>
       </c>
       <c r="J117">
-        <v>1415.961509289487</v>
+        <v>4842786.264887706</v>
       </c>
       <c r="K117">
-        <v>1361.511715419552</v>
+        <v>3986557.869536837</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -4534,31 +4528,31 @@
         <v>11</v>
       </c>
       <c r="C118" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D118" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E118">
         <v>162.142</v>
       </c>
       <c r="F118">
-        <v>237.8110197509282</v>
+        <v>1116500.791689322</v>
       </c>
       <c r="G118">
-        <v>-63.00672770258931</v>
+        <v>4841179.826953126</v>
       </c>
       <c r="H118">
-        <v>1168.626188890782</v>
+        <v>3985546.012666103</v>
       </c>
       <c r="I118">
-        <v>-1190.422031573302</v>
+        <v>1115191.802631245</v>
       </c>
       <c r="J118">
-        <v>1371.862410826036</v>
+        <v>4842737.613290885</v>
       </c>
       <c r="K118">
-        <v>1465.676018285901</v>
+        <v>3986725.327529331</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -4569,31 +4563,31 @@
         <v>11</v>
       </c>
       <c r="C119" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D119" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E119">
         <v>163.142</v>
       </c>
       <c r="F119">
-        <v>207.1805174550971</v>
+        <v>1116482.738926311</v>
       </c>
       <c r="G119">
-        <v>-42.38868659811184</v>
+        <v>4841196.339791865</v>
       </c>
       <c r="H119">
-        <v>1252.852535589187</v>
+        <v>3985630.829605305</v>
       </c>
       <c r="I119">
-        <v>-1151.953533770088</v>
+        <v>1115229.572224316</v>
       </c>
       <c r="J119">
-        <v>1327.763312362586</v>
+        <v>4842688.961694065</v>
       </c>
       <c r="K119">
-        <v>1560.417365827308</v>
+        <v>3986877.636865916</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -4604,31 +4598,31 @@
         <v>11</v>
       </c>
       <c r="C120" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D120" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E120">
         <v>164.142</v>
       </c>
       <c r="F120">
-        <v>185.8189294904929</v>
+        <v>1116470.149002667</v>
       </c>
       <c r="G120">
-        <v>-21.77064549363437</v>
+        <v>4841212.852630603</v>
       </c>
       <c r="H120">
-        <v>1318.439546638937</v>
+        <v>3985696.87651042</v>
       </c>
       <c r="I120">
-        <v>-1112.537784598839</v>
+        <v>1115268.271858869</v>
       </c>
       <c r="J120">
-        <v>1283.664213899135</v>
+        <v>4842640.310097245</v>
       </c>
       <c r="K120">
-        <v>1645.735758043772</v>
+        <v>3987014.797546593</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -4639,31 +4633,31 @@
         <v>11</v>
       </c>
       <c r="C121" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D121" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E121">
         <v>165.142</v>
       </c>
       <c r="F121">
-        <v>169.8825451623272</v>
+        <v>1116460.756542603</v>
       </c>
       <c r="G121">
-        <v>-1.152604389156912</v>
+        <v>4841229.365469342</v>
       </c>
       <c r="H121">
-        <v>1372.160396080983</v>
+        <v>3985750.974048775</v>
       </c>
       <c r="I121">
-        <v>-1072.151458866072</v>
+        <v>1115307.92443632</v>
       </c>
       <c r="J121">
-        <v>1239.565115435685</v>
+        <v>4842591.658500425</v>
       </c>
       <c r="K121">
-        <v>1721.631194935293</v>
+        <v>3987136.809571361</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -4674,31 +4668,31 @@
         <v>11</v>
       </c>
       <c r="C122" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D122" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E122">
         <v>166.142</v>
       </c>
       <c r="F122">
-        <v>157.4225180677956</v>
+        <v>1116453.412950452</v>
       </c>
       <c r="G122">
-        <v>19.46543671532056</v>
+        <v>4841245.87830808</v>
       </c>
       <c r="H122">
-        <v>1417.65803412645</v>
+        <v>3985796.790714832</v>
       </c>
       <c r="I122">
-        <v>-1030.770657016875</v>
+        <v>1115348.553422011</v>
       </c>
       <c r="J122">
-        <v>1195.466016972234</v>
+        <v>4842543.006903603</v>
       </c>
       <c r="K122">
-        <v>1788.103676501873</v>
+        <v>3987243.67294022</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -4709,31 +4703,31 @@
         <v>11</v>
       </c>
       <c r="C123" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D123" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E123">
         <v>167.142</v>
       </c>
       <c r="F123">
-        <v>147.3414489039982</v>
+        <v>1116447.471449697</v>
       </c>
       <c r="G123">
-        <v>40.08347781979803</v>
+        <v>4841262.391146819</v>
       </c>
       <c r="H123">
-        <v>1457.118948776094</v>
+        <v>3985836.528328178</v>
       </c>
       <c r="I123">
-        <v>-988.3708909917798</v>
+        <v>1115390.182859096</v>
       </c>
       <c r="J123">
-        <v>1151.366918508784</v>
+        <v>4842494.355306783</v>
       </c>
       <c r="K123">
-        <v>1845.153202743509</v>
+        <v>3987335.387653171</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -4744,31 +4738,31 @@
         <v>11</v>
       </c>
       <c r="C124" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D124" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E124">
         <v>168.142</v>
       </c>
       <c r="F124">
-        <v>138.9705694118706</v>
+        <v>1116442.537886995</v>
       </c>
       <c r="G124">
-        <v>60.70151892427549</v>
+        <v>4841278.903985558</v>
       </c>
       <c r="H124">
-        <v>1491.959031608279</v>
+        <v>3985871.612708579</v>
       </c>
       <c r="I124">
-        <v>-944.9270697353869</v>
+        <v>1115432.837382771</v>
       </c>
       <c r="J124">
-        <v>1107.267820045333</v>
+        <v>4842445.703709963</v>
       </c>
       <c r="K124">
-        <v>1892.779773660204</v>
+        <v>3987411.953710213</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -4779,31 +4773,31 @@
         <v>11</v>
       </c>
       <c r="C125" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D125" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E125">
         <v>169.142</v>
       </c>
       <c r="F125">
-        <v>131.8768788727174</v>
+        <v>1116438.35706381</v>
       </c>
       <c r="G125">
-        <v>81.31956002875297</v>
+        <v>4841295.416824296</v>
       </c>
       <c r="H125">
-        <v>1523.14791657389</v>
+        <v>3985903.020289029</v>
       </c>
       <c r="I125">
-        <v>-900.4134843481377</v>
+        <v>1115476.542234851</v>
       </c>
       <c r="J125">
-        <v>1063.168721581882</v>
+        <v>4842397.052113142</v>
       </c>
       <c r="K125">
-        <v>1930.983389251955</v>
+        <v>3987473.371111348</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -4814,31 +4808,31 @@
         <v>11</v>
       </c>
       <c r="C126" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D126" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E126">
         <v>170.142</v>
       </c>
       <c r="F126">
-        <v>125.7663565362842</v>
+        <v>1116434.755692518</v>
       </c>
       <c r="G126">
-        <v>101.9376011332304</v>
+        <v>4841311.929663035</v>
       </c>
       <c r="H126">
-        <v>1551.378810965027</v>
+        <v>3985931.449137567</v>
       </c>
       <c r="I126">
-        <v>-854.8037928724751</v>
+        <v>1115521.323278705</v>
       </c>
       <c r="J126">
-        <v>1019.069623118432</v>
+        <v>4842348.400516321</v>
       </c>
       <c r="K126">
-        <v>1959.764049518765</v>
+        <v>3987519.639856573</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -4849,31 +4843,31 @@
         <v>11</v>
       </c>
       <c r="C127" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D127" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E127">
         <v>171.142</v>
       </c>
       <c r="F127">
-        <v>120.431554795291</v>
+        <v>1116431.611509292</v>
       </c>
       <c r="G127">
-        <v>122.5556422377079</v>
+        <v>4841328.442501774</v>
       </c>
       <c r="H127">
-        <v>1577.164509527138</v>
+        <v>3985957.415644639</v>
       </c>
       <c r="I127">
-        <v>-808.0710047043714</v>
+        <v>1115567.207014567</v>
       </c>
       <c r="J127">
-        <v>974.9705246549815</v>
+        <v>4842299.748919501</v>
       </c>
       <c r="K127">
-        <v>1979.121754460631</v>
+        <v>3987550.75994589</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -4884,31 +4878,31 @@
         <v>11</v>
       </c>
       <c r="C128" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D128" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E128">
         <v>172.142</v>
       </c>
       <c r="F128">
-        <v>115.7214290746921</v>
+        <v>1116428.835492674</v>
       </c>
       <c r="G128">
-        <v>143.1736833421854</v>
+        <v>4841344.955340512</v>
       </c>
       <c r="H128">
-        <v>1600.895032194629</v>
+        <v>3985981.312564988</v>
       </c>
       <c r="I128">
-        <v>-760.1874646210044</v>
+        <v>1115614.220595211</v>
       </c>
       <c r="J128">
-        <v>930.8714261915312</v>
+        <v>4842251.097322681</v>
       </c>
       <c r="K128">
-        <v>1989.056504077556</v>
+        <v>3987566.731379299</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -4919,31 +4913,31 @@
         <v>11</v>
       </c>
       <c r="C129" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D129" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E129">
         <v>173.142</v>
       </c>
       <c r="F129">
-        <v>111.5230730033167</v>
+        <v>1116426.361098801</v>
       </c>
       <c r="G129">
-        <v>163.7917244466628</v>
+        <v>4841361.468179251</v>
       </c>
       <c r="H129">
-        <v>1622.873937206468</v>
+        <v>3986003.445585393</v>
       </c>
       <c r="I129">
-        <v>-711.1248364151338</v>
+        <v>1115662.391842027</v>
       </c>
       <c r="J129">
-        <v>886.7723277280805</v>
+        <v>4842202.44572586</v>
       </c>
       <c r="K129">
-        <v>1989.568298369537</v>
+        <v>3987567.554156799</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -4954,31 +4948,31 @@
         <v>11</v>
       </c>
       <c r="C130" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D130" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E130">
         <v>174.142</v>
       </c>
       <c r="F130">
-        <v>107.7501870310129</v>
+        <v>1116424.137465128</v>
       </c>
       <c r="G130">
-        <v>184.4097655511403</v>
+        <v>4841377.98101799</v>
       </c>
       <c r="H130">
-        <v>1643.342128278885</v>
+        <v>3986024.057298779</v>
       </c>
       <c r="I130">
-        <v>-660.8540861264842</v>
+        <v>1115711.74926148</v>
       </c>
       <c r="J130">
-        <v>842.67322926463</v>
+        <v>4842153.794129039</v>
       </c>
       <c r="K130">
-        <v>1980.657137336577</v>
+        <v>3987553.22827839</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -4989,31 +4983,31 @@
         <v>11</v>
       </c>
       <c r="C131" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D131" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E131">
         <v>175.142</v>
       </c>
       <c r="F131">
-        <v>104.3355349408031</v>
+        <v>1116422.124964505</v>
       </c>
       <c r="G131">
-        <v>205.0278066556178</v>
+        <v>4841394.493856728</v>
       </c>
       <c r="H131">
-        <v>1662.493992772759</v>
+        <v>3986043.343455547</v>
       </c>
       <c r="I131">
-        <v>-609.3454648602182</v>
+        <v>1115762.322061978</v>
       </c>
       <c r="J131">
-        <v>798.5741308011795</v>
+        <v>4842105.142532219</v>
       </c>
       <c r="K131">
-        <v>1962.323020978674</v>
+        <v>3987523.753744073</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -5024,31 +5018,31 @@
         <v>11</v>
       </c>
       <c r="C132" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D132" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E132">
         <v>176.142</v>
       </c>
       <c r="F132">
-        <v>101.2258566237326</v>
+        <v>1116420.292206911</v>
       </c>
       <c r="G132">
-        <v>225.6458477600953</v>
+        <v>4841411.006695467</v>
       </c>
       <c r="H132">
-        <v>1680.488656765262</v>
+        <v>3986061.46429756</v>
       </c>
       <c r="I132">
-        <v>-556.5684911823333</v>
+        <v>1115814.140171163</v>
       </c>
       <c r="J132">
-        <v>754.475032337729</v>
+        <v>4842056.490935398</v>
       </c>
       <c r="K132">
-        <v>1934.565949295828</v>
+        <v>3987479.130553848</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -5059,31 +5053,31 @@
         <v>11</v>
       </c>
       <c r="C133" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D133" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E133">
         <v>177.142</v>
       </c>
       <c r="F133">
-        <v>98.37834566473289</v>
+        <v>1116418.613963439</v>
       </c>
       <c r="G133">
-        <v>246.2638888645727</v>
+        <v>4841427.519534205</v>
       </c>
       <c r="H133">
-        <v>1697.45802933604</v>
+        <v>3986078.552658839</v>
       </c>
       <c r="I133">
-        <v>-502.4919330815562</v>
+        <v>1115867.234253614</v>
       </c>
       <c r="J133">
-        <v>710.3759338742784</v>
+        <v>4842007.839338577</v>
       </c>
       <c r="K133">
-        <v>1897.38592228804</v>
+        <v>3987419.358707713</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -5094,31 +5088,31 @@
         <v>11</v>
       </c>
       <c r="C134" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D134" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E134">
         <v>178.142</v>
       </c>
       <c r="F134">
-        <v>95.75815351584841</v>
+        <v>1116417.069695329</v>
       </c>
       <c r="G134">
-        <v>266.8819299690502</v>
+        <v>4841444.032372944</v>
       </c>
       <c r="H134">
-        <v>1713.51267613775</v>
+        <v>3986094.719880321</v>
       </c>
       <c r="I134">
-        <v>-447.0837894870689</v>
+        <v>1115921.635729</v>
       </c>
       <c r="J134">
-        <v>666.276835410828</v>
+        <v>4841959.187741757</v>
       </c>
       <c r="K134">
-        <v>1850.78293995531</v>
+        <v>3987344.438205671</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -5129,31 +5123,31 @@
         <v>11</v>
       </c>
       <c r="C135" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D135" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E135">
         <v>179.142</v>
       </c>
       <c r="F135">
-        <v>93.33658473140213</v>
+        <v>1116415.642490285</v>
       </c>
       <c r="G135">
-        <v>287.4999710735277</v>
+        <v>4841460.545211683</v>
       </c>
       <c r="H135">
-        <v>1728.746189312422</v>
+        <v>3986110.060210412</v>
       </c>
       <c r="I135">
-        <v>-390.3112713311241</v>
+        <v>1115977.37679067</v>
       </c>
       <c r="J135">
-        <v>622.1777369473774</v>
+        <v>4841910.536144936</v>
       </c>
       <c r="K135">
-        <v>1794.757002297637</v>
+        <v>3987254.36904772</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -5164,31 +5158,31 @@
         <v>11</v>
       </c>
       <c r="C136" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D136" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E136">
         <v>180.142</v>
       </c>
       <c r="F136">
-        <v>91.08976812386912</v>
+        <v>1116414.318279295</v>
       </c>
       <c r="G136">
-        <v>308.1180121780051</v>
+        <v>4841477.058050421</v>
       </c>
       <c r="H136">
-        <v>1743.23849326956</v>
+        <v>3986124.65413395</v>
       </c>
       <c r="I136">
-        <v>-332.1407821453483</v>
+        <v>1116034.490424701</v>
       </c>
       <c r="J136">
-        <v>578.0786384839269</v>
+        <v>4841861.884548116</v>
       </c>
       <c r="K136">
-        <v>1729.308109315021</v>
+        <v>3987149.151233861</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -5199,31 +5193,31 @@
         <v>11</v>
       </c>
       <c r="C137" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D137" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E137">
         <v>181.142</v>
       </c>
       <c r="F137">
-        <v>88.99766239912655</v>
+        <v>1116413.085250582</v>
       </c>
       <c r="G137">
-        <v>328.7360532824826</v>
+        <v>4841493.57088916</v>
       </c>
       <c r="H137">
-        <v>1757.058382897425</v>
+        <v>3986138.570928211</v>
       </c>
       <c r="I137">
-        <v>-272.5378981792417</v>
+        <v>1116093.010429428</v>
       </c>
       <c r="J137">
-        <v>533.9795400204764</v>
+        <v>4841813.232951296</v>
       </c>
       <c r="K137">
-        <v>1654.436261007463</v>
+        <v>3987028.784764093</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -5234,31 +5228,31 @@
         <v>11</v>
       </c>
       <c r="C138" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D138" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E138">
         <v>182.142</v>
       </c>
       <c r="F138">
-        <v>87.04330118348055</v>
+        <v>1116411.933404637</v>
       </c>
       <c r="G138">
-        <v>349.3540943869601</v>
+        <v>4841510.083727899</v>
       </c>
       <c r="H138">
-        <v>1770.265498615245</v>
+        <v>3986151.870651811</v>
       </c>
       <c r="I138">
-        <v>-211.4673480291176</v>
+        <v>1116152.971435433</v>
       </c>
       <c r="J138">
-        <v>489.8804415570258</v>
+        <v>4841764.581354476</v>
       </c>
       <c r="K138">
-        <v>1570.141457374963</v>
+        <v>3986893.269638416</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -5269,31 +5263,31 @@
         <v>11</v>
       </c>
       <c r="C139" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D139" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E139">
         <v>183.142</v>
       </c>
       <c r="F139">
-        <v>85.21221222211513</v>
+        <v>1116410.854211917</v>
       </c>
       <c r="G139">
-        <v>369.9721354914375</v>
+        <v>4841526.596566637</v>
       </c>
       <c r="H139">
-        <v>1782.911881856412</v>
+        <v>3986164.605711095</v>
       </c>
       <c r="I139">
-        <v>-148.8929917654222</v>
+        <v>1116214.408926048</v>
       </c>
       <c r="J139">
-        <v>445.7813430935754</v>
+        <v>4841715.929757655</v>
       </c>
       <c r="K139">
-        <v>1476.42369841752</v>
+        <v>3986742.605856832</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -5304,31 +5298,31 @@
         <v>11</v>
       </c>
       <c r="C140" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D140" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E140">
         <v>184.142</v>
       </c>
       <c r="F140">
-        <v>83.49196519630242</v>
+        <v>1116409.84034634</v>
       </c>
       <c r="G140">
-        <v>390.590176595915</v>
+        <v>4841543.109405376</v>
       </c>
       <c r="H140">
-        <v>1795.043213594807</v>
+        <v>3986176.822107351</v>
       </c>
       <c r="I140">
-        <v>-84.77779954608546</v>
+        <v>1116277.359258348</v>
       </c>
       <c r="J140">
-        <v>401.6822446301248</v>
+        <v>4841667.278160835</v>
       </c>
       <c r="K140">
-        <v>1373.282984135135</v>
+        <v>3986576.793419338</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -5339,31 +5333,31 @@
         <v>11</v>
       </c>
       <c r="C141" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D141" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E141">
         <v>185.142</v>
       </c>
       <c r="F141">
-        <v>81.87181581558043</v>
+        <v>1116408.885475521</v>
       </c>
       <c r="G141">
-        <v>411.2082177003925</v>
+        <v>4841559.622244114</v>
       </c>
       <c r="H141">
-        <v>1806.699810391506</v>
+        <v>3986188.560439839</v>
       </c>
       <c r="I141">
-        <v>-19.08382970324308</v>
+        <v>1116341.859684668</v>
       </c>
       <c r="J141">
-        <v>357.5831461666742</v>
+        <v>4841618.626564014</v>
       </c>
       <c r="K141">
-        <v>1260.719314527807</v>
+        <v>3986395.832325936</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -5374,31 +5368,31 @@
         <v>11</v>
       </c>
       <c r="C142" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D142" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E142">
         <v>186.142</v>
       </c>
       <c r="F142">
-        <v>80.34242287249711</v>
+        <v>1116407.984094013</v>
       </c>
       <c r="G142">
-        <v>431.82625880487</v>
+        <v>4841576.135082853</v>
       </c>
       <c r="H142">
-        <v>1817.91743278916</v>
+        <v>3986199.856719853</v>
       </c>
       <c r="I142">
-        <v>48.22779370963543</v>
+        <v>1116407.948374646</v>
       </c>
       <c r="J142">
-        <v>313.4840477032238</v>
+        <v>4841569.974967193</v>
       </c>
       <c r="K142">
-        <v>1138.732689595537</v>
+        <v>3986199.722576626</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -5409,31 +5403,31 @@
         <v>11</v>
       </c>
       <c r="C143" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D143" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E143">
         <v>187.142</v>
       </c>
       <c r="F143">
-        <v>78.89562122454211</v>
+        <v>1116407.131389509</v>
       </c>
       <c r="G143">
-        <v>452.4442999093474</v>
+        <v>4841592.647921592</v>
       </c>
       <c r="H143">
-        <v>1828.727946941854</v>
+        <v>3986210.743036992</v>
       </c>
       <c r="I143">
-        <v>117.1969039234979</v>
+        <v>1116475.664437815</v>
       </c>
       <c r="J143">
-        <v>269.3849492397732</v>
+        <v>4841521.323370373</v>
       </c>
       <c r="K143">
-        <v>1007.323109338324</v>
+        <v>3985988.464171407</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -5444,31 +5438,31 @@
         <v>11</v>
       </c>
       <c r="C144" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D144" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E144">
         <v>188.142</v>
       </c>
       <c r="F144">
-        <v>77.52423809647989</v>
+        <v>1116406.323134575</v>
       </c>
       <c r="G144">
-        <v>473.0623410138249</v>
+        <v>4841609.16076033</v>
       </c>
       <c r="H144">
-        <v>1839.159870337529</v>
+        <v>3986221.248108708</v>
       </c>
       <c r="I144">
-        <v>187.8643150259595</v>
+        <v>1116545.047946742</v>
       </c>
       <c r="J144">
-        <v>225.2858507763228</v>
+        <v>4841472.671773553</v>
       </c>
       <c r="K144">
-        <v>866.4905737561689</v>
+        <v>3985762.057110279</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -5479,31 +5473,31 @@
         <v>11</v>
       </c>
       <c r="C145" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D145" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E145">
         <v>189.142</v>
       </c>
       <c r="F145">
-        <v>76.22194326427046</v>
+        <v>1116405.555598354</v>
       </c>
       <c r="G145">
-        <v>493.6803821183024</v>
+        <v>4841625.673599069</v>
       </c>
       <c r="H145">
-        <v>1849.238825156615</v>
+        <v>3986231.397736842</v>
       </c>
       <c r="I145">
-        <v>260.2718461139923</v>
+        <v>1116616.139960744</v>
       </c>
       <c r="J145">
-        <v>181.1867523128722</v>
+        <v>4841424.020176732</v>
       </c>
       <c r="K145">
-        <v>716.2350828490707</v>
+        <v>3985520.501393243</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -5514,31 +5508,31 @@
         <v>11</v>
       </c>
       <c r="C146" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D146" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E146">
         <v>190.142</v>
       </c>
       <c r="F146">
-        <v>74.98312597703335</v>
+        <v>1116404.825474026</v>
       </c>
       <c r="G146">
-        <v>514.2984232227798</v>
+        <v>4841642.186437808</v>
       </c>
       <c r="H146">
-        <v>1858.987917413447</v>
+        <v>3986241.215189429</v>
       </c>
       <c r="I146">
-        <v>334.4623460413614</v>
+        <v>1116688.982550188</v>
       </c>
       <c r="J146">
-        <v>137.0876538494217</v>
+        <v>4841375.368579911</v>
       </c>
       <c r="K146">
-        <v>556.5566366170306</v>
+        <v>3985263.797020299</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -5549,31 +5543,31 @@
         <v>11</v>
       </c>
       <c r="C147" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D147" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E147">
         <v>191.142</v>
       </c>
       <c r="F147">
-        <v>73.80279315625741</v>
+        <v>1116404.12981881</v>
       </c>
       <c r="G147">
-        <v>534.9164643272572</v>
+        <v>4841658.699276546</v>
       </c>
       <c r="H147">
-        <v>1868.428055999118</v>
+        <v>3986250.72152197</v>
       </c>
       <c r="I147">
-        <v>410.4797187754324</v>
+        <v>1116763.618821382</v>
       </c>
       <c r="J147">
-        <v>92.98855538597125</v>
+        <v>4841326.716983091</v>
       </c>
       <c r="K147">
-        <v>387.4552350600482</v>
+        <v>3984991.943991445</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -5584,31 +5578,31 @@
         <v>11</v>
       </c>
       <c r="C148" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D148" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E148">
         <v>192.142</v>
       </c>
       <c r="F148">
-        <v>72.67648465877588</v>
+        <v>1116403.466004023</v>
       </c>
       <c r="G148">
-        <v>555.5345054317347</v>
+        <v>4841675.212115285</v>
       </c>
       <c r="H148">
-        <v>1877.578222706989</v>
+        <v>3986259.93584936</v>
       </c>
       <c r="I148">
-        <v>488.3689493783811</v>
+        <v>1116840.092942091</v>
       </c>
       <c r="J148">
-        <v>48.88945692252066</v>
+        <v>4841278.065386271</v>
       </c>
       <c r="K148">
-        <v>208.9308781781229</v>
+        <v>3984704.942306684</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -5619,31 +5613,31 @@
         <v>11</v>
       </c>
       <c r="C149" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D149" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E149">
         <v>193.142</v>
       </c>
       <c r="F149">
-        <v>71.60020232406445</v>
+        <v>1116402.831673259</v>
       </c>
       <c r="G149">
-        <v>576.1525465362123</v>
+        <v>4841691.724954024</v>
       </c>
       <c r="H149">
-        <v>1886.455702009254</v>
+        <v>3986268.87557727</v>
       </c>
       <c r="I149">
-        <v>568.1761306281485</v>
+        <v>1116918.450167667</v>
       </c>
       <c r="J149">
-        <v>4.790358459070064</v>
+        <v>4841229.413789449</v>
       </c>
       <c r="K149">
-        <v>20.98356597125515</v>
+        <v>3984402.791966014</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -5654,31 +5648,31 @@
         <v>11</v>
       </c>
       <c r="C150" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D150" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E150">
         <v>194.142</v>
       </c>
       <c r="F150">
-        <v>70.57035023259913</v>
+        <v>1116402.224707184</v>
       </c>
       <c r="G150">
-        <v>596.7705876406897</v>
+        <v>4841708.237792762</v>
       </c>
       <c r="H150">
-        <v>1895.076277575862</v>
+        <v>3986277.556600041</v>
       </c>
       <c r="I150">
-        <v>649.9484902949303</v>
+        <v>1116998.736867836</v>
       </c>
       <c r="J150">
-        <v>-39.30874000438033</v>
+        <v>4841180.762192629</v>
       </c>
       <c r="K150">
-        <v>-176.3867015605545</v>
+        <v>3984085.492969436</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -5689,31 +5683,31 @@
         <v>11</v>
       </c>
       <c r="C151" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D151" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E151">
         <v>195.142</v>
       </c>
       <c r="F151">
-        <v>69.58368414069403</v>
+        <v>1116401.643193732</v>
       </c>
       <c r="G151">
-        <v>617.3886287451671</v>
+        <v>4841724.750631501</v>
       </c>
       <c r="H151">
-        <v>1903.454401150067</v>
+        <v>3986285.993470755</v>
       </c>
       <c r="I151">
-        <v>733.7344190893155</v>
+        <v>1117081.000554134</v>
       </c>
       <c r="J151">
-        <v>-83.40783846783093</v>
+        <v>4841132.110595809</v>
       </c>
       <c r="K151">
-        <v>-383.1799244173071</v>
+        <v>3983753.045316949</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -5724,31 +5718,31 @@
         <v>11</v>
       </c>
       <c r="C152" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D152" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E152">
         <v>196.142</v>
       </c>
       <c r="F152">
-        <v>68.63726847161328</v>
+        <v>1116401.085402756</v>
       </c>
       <c r="G152">
-        <v>638.0066698496446</v>
+        <v>4841741.263470239</v>
       </c>
       <c r="H152">
-        <v>1911.60333831936</v>
+        <v>3986294.199548017</v>
       </c>
       <c r="I152">
-        <v>819.5834992986219</v>
+        <v>1117165.289908026</v>
       </c>
       <c r="J152">
-        <v>-127.5069369312815</v>
+        <v>4841083.458998987</v>
       </c>
       <c r="K152">
-        <v>-599.3961025990028</v>
+        <v>3983405.449008553</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -5759,31 +5753,31 @@
         <v>11</v>
       </c>
       <c r="C153" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D153" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E153">
         <v>197.142</v>
       </c>
       <c r="F153">
-        <v>67.72843956403646</v>
+        <v>1116400.549764367</v>
       </c>
       <c r="G153">
-        <v>658.6247109541221</v>
+        <v>4841757.776308978</v>
       </c>
       <c r="H153">
-        <v>1919.535294874236</v>
+        <v>3986302.187123203</v>
       </c>
       <c r="I153">
-        <v>907.5465341283767</v>
+        <v>1117251.654809713</v>
       </c>
       <c r="J153">
-        <v>-171.6060353947321</v>
+        <v>4841034.807402167</v>
       </c>
       <c r="K153">
-        <v>-825.0352361056405</v>
+        <v>3983042.704044249</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -5794,31 +5788,31 @@
         <v>11</v>
       </c>
       <c r="C154" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D154" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E154">
         <v>198.142</v>
       </c>
       <c r="F154">
-        <v>66.85477412990106</v>
+        <v>1116400.034850348</v>
       </c>
       <c r="G154">
-        <v>679.2427520585995</v>
+        <v>4841774.289147717</v>
       </c>
       <c r="H154">
-        <v>1927.261526776589</v>
+        <v>3986309.967531201</v>
       </c>
       <c r="I154">
-        <v>997.6755777663055</v>
+        <v>1117340.146367649</v>
       </c>
       <c r="J154">
-        <v>-215.7051338581823</v>
+        <v>4840986.155805347</v>
       </c>
       <c r="K154">
-        <v>-1060.097324937219</v>
+        <v>3982664.810424037</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -5829,31 +5823,31 @@
         <v>11</v>
       </c>
       <c r="C155" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D155" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E155">
         <v>199.142</v>
       </c>
       <c r="F155">
-        <v>66.01406207104124</v>
+        <v>1116399.539358129</v>
       </c>
       <c r="G155">
-        <v>699.860793163077</v>
+        <v>4841790.801986455</v>
       </c>
       <c r="H155">
-        <v>1934.792436224621</v>
+        <v>3986317.55124715</v>
       </c>
       <c r="I155">
-        <v>1090.02396618662</v>
+        <v>1117430.816948789</v>
       </c>
       <c r="J155">
-        <v>-259.8042323216329</v>
+        <v>4840937.504208528</v>
       </c>
       <c r="K155">
-        <v>-1304.582369093742</v>
+        <v>3982271.768147916</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -5864,31 +5858,31 @@
         <v>11</v>
       </c>
       <c r="C156" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D156" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E156">
         <v>200.142</v>
       </c>
       <c r="F156">
-        <v>65.20428296033441</v>
+        <v>1116399.062096926</v>
       </c>
       <c r="G156">
-        <v>720.4788342675545</v>
+        <v>4841807.314825193</v>
       </c>
       <c r="H156">
-        <v>1942.137655871747</v>
+        <v>3986324.947971247</v>
       </c>
       <c r="I156">
-        <v>1184.646348712824</v>
+        <v>1117523.720209575</v>
       </c>
       <c r="J156">
-        <v>-303.9033307850835</v>
+        <v>4840888.852611706</v>
       </c>
       <c r="K156">
-        <v>-1558.490368575207</v>
+        <v>3981863.577215886</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -5899,31 +5893,31 @@
         <v>11</v>
       </c>
       <c r="C157" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D157" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E157">
         <v>201.142</v>
       </c>
       <c r="F157">
-        <v>64.42358561759708</v>
+        <v>1116398.601975705</v>
       </c>
       <c r="G157">
-        <v>741.0968753720318</v>
+        <v>4841823.827663932</v>
       </c>
       <c r="H157">
-        <v>1949.306122910303</v>
+        <v>3986332.166703352</v>
       </c>
       <c r="I157">
-        <v>1281.59872035774</v>
+        <v>1117618.911127687</v>
       </c>
       <c r="J157">
-        <v>-348.0024292485341</v>
+        <v>4840840.201014886</v>
       </c>
       <c r="K157">
-        <v>-1821.821323381615</v>
+        <v>3981440.237627948</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -5934,31 +5928,31 @@
         <v>11</v>
       </c>
       <c r="C158" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D158" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E158">
         <v>202.142</v>
       </c>
       <c r="F158">
-        <v>63.67027031028562</v>
+        <v>1116398.157992692</v>
       </c>
       <c r="G158">
-        <v>761.7149164765094</v>
+        <v>4841840.34050267</v>
       </c>
       <c r="H158">
-        <v>1956.306144449369</v>
+        <v>3986339.215808823</v>
       </c>
       <c r="I158">
-        <v>1380.938454959867</v>
+        <v>1117716.446034584</v>
       </c>
       <c r="J158">
-        <v>-392.1015277119847</v>
+        <v>4840791.549418066</v>
       </c>
       <c r="K158">
-        <v>-2094.575233512965</v>
+        <v>3981001.749384101</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -5969,31 +5963,31 @@
         <v>11</v>
       </c>
       <c r="C159" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D159" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E159">
         <v>203.142</v>
       </c>
       <c r="F159">
-        <v>62.94277318950142</v>
+        <v>1116397.729226197</v>
       </c>
       <c r="G159">
-        <v>782.3329575809869</v>
+        <v>4841856.853341409</v>
       </c>
       <c r="H159">
-        <v>1963.145455386244</v>
+        <v>3986346.103076793</v>
       </c>
       <c r="I159">
-        <v>1482.724339135689</v>
+        <v>1117816.382648833</v>
       </c>
       <c r="J159">
-        <v>-436.2006261754349</v>
+        <v>4840742.897821245</v>
       </c>
       <c r="K159">
-        <v>-2376.752098969255</v>
+        <v>3980548.112484347</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -6004,31 +5998,31 @@
         <v>11</v>
       </c>
       <c r="C160" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D160" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E160">
         <v>204.142</v>
       </c>
       <c r="F160">
-        <v>62.23965263699716</v>
+        <v>1116397.31482657</v>
       </c>
       <c r="G160">
-        <v>802.9509986854642</v>
+        <v>4841873.366180148</v>
       </c>
       <c r="H160">
-        <v>1969.831269782611</v>
+        <v>3986352.835771911</v>
       </c>
       <c r="I160">
-        <v>1587.016607068047</v>
+        <v>1117918.780110268</v>
       </c>
       <c r="J160">
-        <v>-480.2997246388855</v>
+        <v>4840694.246224424</v>
       </c>
       <c r="K160">
-        <v>-2668.35191975049</v>
+        <v>3980079.326928684</v>
       </c>
     </row>
   </sheetData>
